--- a/doc/議事録/6月スケジュール・進捗.xlsx
+++ b/doc/議事録/6月スケジュール・進捗.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\議事録\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B451E54-5856-4FF1-8042-FA8D67F18667}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78EA992C-365C-4E67-8BC6-359AAE6C577F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EF38ED0C-2E44-4635-8BF2-3FB90485B04B}"/>
   </bookViews>
@@ -963,7 +963,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1129,6 +1129,60 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="33" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1162,36 +1216,6 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1210,28 +1234,16 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="33" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1558,8 +1570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E4E062F-53B0-43EA-8BD7-13462A9EF8FE}">
   <dimension ref="A1:AD63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q17" sqref="Q17"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N65" sqref="N65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1604,31 +1616,31 @@
     </row>
     <row r="4" spans="1:30" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="5" spans="1:30" x14ac:dyDescent="0.4">
-      <c r="B5" s="66" t="s">
+      <c r="B5" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="66" t="s">
+      <c r="C5" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="72" t="s">
+      <c r="D5" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="66" t="s">
+      <c r="E5" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="66" t="s">
+      <c r="F5" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="66" t="s">
+      <c r="G5" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="66" t="s">
+      <c r="H5" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="66" t="s">
+      <c r="I5" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="69" t="s">
+      <c r="J5" s="66" t="s">
         <v>10</v>
       </c>
       <c r="K5" s="6">
@@ -1693,15 +1705,15 @@
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.4">
-      <c r="B6" s="67"/>
-      <c r="C6" s="67"/>
-      <c r="D6" s="73"/>
-      <c r="E6" s="67"/>
-      <c r="F6" s="67"/>
-      <c r="G6" s="67"/>
-      <c r="H6" s="67"/>
-      <c r="I6" s="67"/>
-      <c r="J6" s="70"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="64"/>
+      <c r="I6" s="64"/>
+      <c r="J6" s="67"/>
       <c r="K6" s="4">
         <v>44722</v>
       </c>
@@ -1764,15 +1776,15 @@
       </c>
     </row>
     <row r="7" spans="1:30" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="68"/>
-      <c r="C7" s="68"/>
-      <c r="D7" s="74"/>
-      <c r="E7" s="75"/>
-      <c r="F7" s="68"/>
-      <c r="G7" s="68"/>
-      <c r="H7" s="68"/>
-      <c r="I7" s="68"/>
-      <c r="J7" s="71"/>
+      <c r="B7" s="65"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="71"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="65"/>
+      <c r="H7" s="65"/>
+      <c r="I7" s="65"/>
+      <c r="J7" s="68"/>
       <c r="K7" s="27">
         <v>44722</v>
       </c>
@@ -1844,7 +1856,7 @@
       <c r="D8" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="E8" s="76" t="s">
+      <c r="E8" s="84" t="s">
         <v>21</v>
       </c>
       <c r="F8" s="37" t="s">
@@ -1853,18 +1865,18 @@
       <c r="G8" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="H8" s="82">
+      <c r="H8" s="55">
         <v>44722</v>
       </c>
-      <c r="I8" s="87"/>
-      <c r="J8" s="87">
+      <c r="I8" s="60"/>
+      <c r="J8" s="60">
         <v>1</v>
       </c>
-      <c r="K8" s="84"/>
+      <c r="K8" s="57"/>
       <c r="L8" s="31"/>
       <c r="M8" s="32"/>
-      <c r="N8" s="84"/>
-      <c r="O8" s="84"/>
+      <c r="N8" s="57"/>
+      <c r="O8" s="57"/>
       <c r="P8" s="25"/>
       <c r="Q8" s="25"/>
       <c r="R8" s="25"/>
@@ -1885,25 +1897,25 @@
       <c r="B9" s="29"/>
       <c r="C9" s="29"/>
       <c r="D9" s="29"/>
-      <c r="E9" s="77"/>
+      <c r="E9" s="85"/>
       <c r="F9" s="38" t="s">
         <v>12</v>
       </c>
       <c r="G9" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="H9" s="83">
+      <c r="H9" s="56">
         <v>44722</v>
       </c>
-      <c r="I9" s="88"/>
-      <c r="J9" s="88">
+      <c r="I9" s="61"/>
+      <c r="J9" s="61">
         <v>1</v>
       </c>
-      <c r="K9" s="85"/>
+      <c r="K9" s="58"/>
       <c r="L9" s="31"/>
       <c r="M9" s="32"/>
-      <c r="N9" s="85"/>
-      <c r="O9" s="85"/>
+      <c r="N9" s="58"/>
+      <c r="O9" s="58"/>
       <c r="P9" s="5"/>
       <c r="Q9" s="5"/>
       <c r="R9" s="5"/>
@@ -1924,23 +1936,23 @@
       <c r="B10" s="29"/>
       <c r="C10" s="29"/>
       <c r="D10" s="29"/>
-      <c r="E10" s="77"/>
+      <c r="E10" s="85"/>
       <c r="F10" s="38" t="s">
         <v>13</v>
       </c>
       <c r="G10" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="H10" s="82">
+      <c r="H10" s="55">
         <v>44722</v>
       </c>
       <c r="I10" s="12"/>
       <c r="J10" s="23"/>
-      <c r="K10" s="85"/>
+      <c r="K10" s="58"/>
       <c r="L10" s="31"/>
       <c r="M10" s="32"/>
-      <c r="N10" s="85"/>
-      <c r="O10" s="85"/>
+      <c r="N10" s="58"/>
+      <c r="O10" s="58"/>
       <c r="P10" s="5"/>
       <c r="Q10" s="5"/>
       <c r="R10" s="5"/>
@@ -1961,23 +1973,23 @@
       <c r="B11" s="29"/>
       <c r="C11" s="29"/>
       <c r="D11" s="29"/>
-      <c r="E11" s="77"/>
+      <c r="E11" s="85"/>
       <c r="F11" s="38" t="s">
         <v>14</v>
       </c>
       <c r="G11" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="H11" s="83">
+      <c r="H11" s="56">
         <v>44722</v>
       </c>
       <c r="I11" s="12"/>
       <c r="J11" s="23"/>
-      <c r="K11" s="85"/>
+      <c r="K11" s="58"/>
       <c r="L11" s="31"/>
       <c r="M11" s="32"/>
-      <c r="N11" s="85"/>
-      <c r="O11" s="85"/>
+      <c r="N11" s="58"/>
+      <c r="O11" s="58"/>
       <c r="P11" s="5"/>
       <c r="Q11" s="5"/>
       <c r="R11" s="5"/>
@@ -1998,23 +2010,23 @@
       <c r="B12" s="29"/>
       <c r="C12" s="29"/>
       <c r="D12" s="29"/>
-      <c r="E12" s="77"/>
+      <c r="E12" s="85"/>
       <c r="F12" s="38" t="s">
         <v>15</v>
       </c>
       <c r="G12" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="H12" s="82">
+      <c r="H12" s="55">
         <v>44722</v>
       </c>
       <c r="I12" s="12"/>
       <c r="J12" s="23"/>
-      <c r="K12" s="85"/>
+      <c r="K12" s="58"/>
       <c r="L12" s="31"/>
       <c r="M12" s="32"/>
-      <c r="N12" s="85"/>
-      <c r="O12" s="85"/>
+      <c r="N12" s="58"/>
+      <c r="O12" s="58"/>
       <c r="P12" s="5"/>
       <c r="Q12" s="5"/>
       <c r="R12" s="5"/>
@@ -2035,23 +2047,23 @@
       <c r="B13" s="29"/>
       <c r="C13" s="29"/>
       <c r="D13" s="29"/>
-      <c r="E13" s="77"/>
+      <c r="E13" s="85"/>
       <c r="F13" s="38" t="s">
         <v>16</v>
       </c>
       <c r="G13" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="H13" s="83">
+      <c r="H13" s="56">
         <v>44722</v>
       </c>
       <c r="I13" s="12"/>
       <c r="J13" s="23"/>
-      <c r="K13" s="85"/>
+      <c r="K13" s="58"/>
       <c r="L13" s="31"/>
       <c r="M13" s="32"/>
-      <c r="N13" s="85"/>
-      <c r="O13" s="85"/>
+      <c r="N13" s="58"/>
+      <c r="O13" s="58"/>
       <c r="P13" s="5"/>
       <c r="Q13" s="5"/>
       <c r="R13" s="5"/>
@@ -2072,23 +2084,23 @@
       <c r="B14" s="29"/>
       <c r="C14" s="29"/>
       <c r="D14" s="29"/>
-      <c r="E14" s="77"/>
+      <c r="E14" s="85"/>
       <c r="F14" s="38" t="s">
         <v>17</v>
       </c>
       <c r="G14" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="H14" s="82">
+      <c r="H14" s="55">
         <v>44722</v>
       </c>
       <c r="I14" s="12"/>
       <c r="J14" s="23"/>
-      <c r="K14" s="85"/>
+      <c r="K14" s="58"/>
       <c r="L14" s="31"/>
       <c r="M14" s="32"/>
-      <c r="N14" s="85"/>
-      <c r="O14" s="85"/>
+      <c r="N14" s="58"/>
+      <c r="O14" s="58"/>
       <c r="P14" s="5"/>
       <c r="Q14" s="5"/>
       <c r="R14" s="5"/>
@@ -2109,23 +2121,23 @@
       <c r="B15" s="29"/>
       <c r="C15" s="29"/>
       <c r="D15" s="29"/>
-      <c r="E15" s="77"/>
+      <c r="E15" s="85"/>
       <c r="F15" s="38" t="s">
         <v>18</v>
       </c>
       <c r="G15" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="H15" s="83">
+      <c r="H15" s="56">
         <v>44722</v>
       </c>
       <c r="I15" s="12"/>
       <c r="J15" s="23"/>
-      <c r="K15" s="85"/>
+      <c r="K15" s="58"/>
       <c r="L15" s="31"/>
       <c r="M15" s="32"/>
-      <c r="N15" s="85"/>
-      <c r="O15" s="85"/>
+      <c r="N15" s="58"/>
+      <c r="O15" s="58"/>
       <c r="P15" s="5"/>
       <c r="Q15" s="5"/>
       <c r="R15" s="5"/>
@@ -2146,25 +2158,25 @@
       <c r="B16" s="29"/>
       <c r="C16" s="29"/>
       <c r="D16" s="29"/>
-      <c r="E16" s="77"/>
+      <c r="E16" s="85"/>
       <c r="F16" s="38" t="s">
         <v>19</v>
       </c>
       <c r="G16" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="H16" s="82">
+      <c r="H16" s="55">
         <v>44722</v>
       </c>
-      <c r="I16" s="88"/>
-      <c r="J16" s="88">
+      <c r="I16" s="61"/>
+      <c r="J16" s="61">
         <v>0.5</v>
       </c>
-      <c r="K16" s="85"/>
+      <c r="K16" s="58"/>
       <c r="L16" s="31"/>
       <c r="M16" s="32"/>
-      <c r="N16" s="85"/>
-      <c r="O16" s="85"/>
+      <c r="N16" s="58"/>
+      <c r="O16" s="58"/>
       <c r="P16" s="5"/>
       <c r="Q16" s="5"/>
       <c r="R16" s="5"/>
@@ -2185,25 +2197,25 @@
       <c r="B17" s="29"/>
       <c r="C17" s="29"/>
       <c r="D17" s="29"/>
-      <c r="E17" s="78"/>
+      <c r="E17" s="86"/>
       <c r="F17" s="39" t="s">
         <v>20</v>
       </c>
       <c r="G17" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="H17" s="86">
+      <c r="H17" s="59">
         <v>44722</v>
       </c>
-      <c r="I17" s="89"/>
-      <c r="J17" s="89">
+      <c r="I17" s="62"/>
+      <c r="J17" s="62">
         <v>0.7</v>
       </c>
-      <c r="K17" s="85"/>
+      <c r="K17" s="58"/>
       <c r="L17" s="31"/>
       <c r="M17" s="32"/>
-      <c r="N17" s="85"/>
-      <c r="O17" s="85"/>
+      <c r="N17" s="58"/>
+      <c r="O17" s="58"/>
       <c r="P17" s="5"/>
       <c r="Q17" s="5"/>
       <c r="R17" s="5"/>
@@ -2224,14 +2236,16 @@
       <c r="B18" s="29"/>
       <c r="C18" s="29"/>
       <c r="D18" s="29"/>
-      <c r="E18" s="79" t="s">
+      <c r="E18" s="87" t="s">
         <v>25</v>
       </c>
       <c r="F18" s="40" t="s">
         <v>22</v>
       </c>
       <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
+      <c r="H18" s="55">
+        <v>44725</v>
+      </c>
       <c r="I18" s="19"/>
       <c r="J18" s="22"/>
       <c r="K18" s="5"/>
@@ -2259,12 +2273,14 @@
       <c r="B19" s="29"/>
       <c r="C19" s="29"/>
       <c r="D19" s="29"/>
-      <c r="E19" s="80"/>
+      <c r="E19" s="88"/>
       <c r="F19" s="41" t="s">
         <v>23</v>
       </c>
       <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
+      <c r="H19" s="56">
+        <v>44725</v>
+      </c>
       <c r="I19" s="12"/>
       <c r="J19" s="23"/>
       <c r="K19" s="5"/>
@@ -2292,12 +2308,14 @@
       <c r="B20" s="29"/>
       <c r="C20" s="29"/>
       <c r="D20" s="29"/>
-      <c r="E20" s="81"/>
+      <c r="E20" s="89"/>
       <c r="F20" s="42" t="s">
         <v>24</v>
       </c>
       <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
+      <c r="H20" s="93">
+        <v>44725</v>
+      </c>
       <c r="I20" s="13"/>
       <c r="J20" s="24"/>
       <c r="K20" s="5"/>
@@ -2325,15 +2343,19 @@
       <c r="B21" s="29"/>
       <c r="C21" s="29"/>
       <c r="D21" s="29"/>
-      <c r="E21" s="55" t="s">
+      <c r="E21" s="73" t="s">
         <v>69</v>
       </c>
       <c r="F21" s="43" t="s">
         <v>26</v>
       </c>
       <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="19"/>
+      <c r="H21" s="55">
+        <v>44725</v>
+      </c>
+      <c r="I21" s="90">
+        <v>44725</v>
+      </c>
       <c r="J21" s="22"/>
       <c r="K21" s="5"/>
       <c r="L21" s="31"/>
@@ -2360,13 +2382,17 @@
       <c r="B22" s="29"/>
       <c r="C22" s="29"/>
       <c r="D22" s="29"/>
-      <c r="E22" s="55"/>
+      <c r="E22" s="73"/>
       <c r="F22" s="44" t="s">
         <v>27</v>
       </c>
       <c r="G22" s="21"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="16"/>
+      <c r="H22" s="55">
+        <v>44725</v>
+      </c>
+      <c r="I22" s="91">
+        <v>44725</v>
+      </c>
       <c r="J22" s="23"/>
       <c r="K22" s="17"/>
       <c r="L22" s="31"/>
@@ -2393,13 +2419,17 @@
       <c r="B23" s="29"/>
       <c r="C23" s="29"/>
       <c r="D23" s="29"/>
-      <c r="E23" s="55"/>
+      <c r="E23" s="73"/>
       <c r="F23" s="44" t="s">
         <v>28</v>
       </c>
       <c r="G23" s="21"/>
-      <c r="H23" s="21"/>
-      <c r="I23" s="16"/>
+      <c r="H23" s="55">
+        <v>44725</v>
+      </c>
+      <c r="I23" s="90">
+        <v>44725</v>
+      </c>
       <c r="J23" s="35"/>
       <c r="K23" s="17"/>
       <c r="L23" s="31"/>
@@ -2426,13 +2456,17 @@
       <c r="B24" s="29"/>
       <c r="C24" s="29"/>
       <c r="D24" s="29"/>
-      <c r="E24" s="55"/>
+      <c r="E24" s="73"/>
       <c r="F24" s="44" t="s">
         <v>29</v>
       </c>
       <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="12"/>
+      <c r="H24" s="55">
+        <v>44725</v>
+      </c>
+      <c r="I24" s="91">
+        <v>44725</v>
+      </c>
       <c r="J24" s="23"/>
       <c r="K24" s="5"/>
       <c r="L24" s="31"/>
@@ -2459,13 +2493,17 @@
       <c r="B25" s="29"/>
       <c r="C25" s="29"/>
       <c r="D25" s="29"/>
-      <c r="E25" s="55"/>
+      <c r="E25" s="73"/>
       <c r="F25" s="44" t="s">
         <v>30</v>
       </c>
       <c r="G25" s="20"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="19"/>
+      <c r="H25" s="55">
+        <v>44725</v>
+      </c>
+      <c r="I25" s="90">
+        <v>44725</v>
+      </c>
       <c r="J25" s="22"/>
       <c r="K25" s="25"/>
       <c r="L25" s="31"/>
@@ -2492,13 +2530,17 @@
       <c r="B26" s="29"/>
       <c r="C26" s="29"/>
       <c r="D26" s="29"/>
-      <c r="E26" s="55"/>
+      <c r="E26" s="73"/>
       <c r="F26" s="44" t="s">
         <v>31</v>
       </c>
       <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="12"/>
+      <c r="H26" s="55">
+        <v>44725</v>
+      </c>
+      <c r="I26" s="91">
+        <v>44725</v>
+      </c>
       <c r="J26" s="23"/>
       <c r="K26" s="5"/>
       <c r="L26" s="31"/>
@@ -2525,13 +2567,17 @@
       <c r="B27" s="29"/>
       <c r="C27" s="29"/>
       <c r="D27" s="29"/>
-      <c r="E27" s="55"/>
+      <c r="E27" s="73"/>
       <c r="F27" s="44" t="s">
         <v>32</v>
       </c>
       <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="12"/>
+      <c r="H27" s="55">
+        <v>44725</v>
+      </c>
+      <c r="I27" s="90">
+        <v>44725</v>
+      </c>
       <c r="J27" s="23"/>
       <c r="K27" s="5"/>
       <c r="L27" s="31"/>
@@ -2558,13 +2604,17 @@
       <c r="B28" s="29"/>
       <c r="C28" s="29"/>
       <c r="D28" s="29"/>
-      <c r="E28" s="55"/>
+      <c r="E28" s="73"/>
       <c r="F28" s="44" t="s">
         <v>33</v>
       </c>
       <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="12"/>
+      <c r="H28" s="55">
+        <v>44725</v>
+      </c>
+      <c r="I28" s="91">
+        <v>44725</v>
+      </c>
       <c r="J28" s="23"/>
       <c r="K28" s="5"/>
       <c r="L28" s="31"/>
@@ -2591,13 +2641,17 @@
       <c r="B29" s="29"/>
       <c r="C29" s="29"/>
       <c r="D29" s="29"/>
-      <c r="E29" s="56"/>
+      <c r="E29" s="74"/>
       <c r="F29" s="45" t="s">
         <v>34</v>
       </c>
       <c r="G29" s="15"/>
-      <c r="H29" s="15"/>
-      <c r="I29" s="13"/>
+      <c r="H29" s="59">
+        <v>44725</v>
+      </c>
+      <c r="I29" s="92">
+        <v>44725</v>
+      </c>
       <c r="J29" s="24"/>
       <c r="K29" s="5"/>
       <c r="L29" s="31"/>
@@ -2624,14 +2678,16 @@
       <c r="B30" s="29"/>
       <c r="C30" s="29"/>
       <c r="D30" s="29"/>
-      <c r="E30" s="57" t="s">
+      <c r="E30" s="75" t="s">
         <v>70</v>
       </c>
       <c r="F30" s="46" t="s">
         <v>35</v>
       </c>
       <c r="G30" s="20"/>
-      <c r="H30" s="20"/>
+      <c r="H30" s="55">
+        <v>44728</v>
+      </c>
       <c r="I30" s="19"/>
       <c r="J30" s="22"/>
       <c r="K30" s="5"/>
@@ -2659,12 +2715,14 @@
       <c r="B31" s="29"/>
       <c r="C31" s="29"/>
       <c r="D31" s="29"/>
-      <c r="E31" s="58"/>
+      <c r="E31" s="76"/>
       <c r="F31" s="47" t="s">
         <v>36</v>
       </c>
       <c r="G31" s="14"/>
-      <c r="H31" s="14"/>
+      <c r="H31" s="56">
+        <v>44728</v>
+      </c>
       <c r="I31" s="12"/>
       <c r="J31" s="23"/>
       <c r="K31" s="5"/>
@@ -2692,12 +2750,14 @@
       <c r="B32" s="29"/>
       <c r="C32" s="29"/>
       <c r="D32" s="29"/>
-      <c r="E32" s="58"/>
+      <c r="E32" s="76"/>
       <c r="F32" s="47" t="s">
         <v>37</v>
       </c>
       <c r="G32" s="14"/>
-      <c r="H32" s="14"/>
+      <c r="H32" s="55">
+        <v>44728</v>
+      </c>
       <c r="I32" s="12"/>
       <c r="J32" s="23"/>
       <c r="K32" s="5"/>
@@ -2725,12 +2785,14 @@
       <c r="B33" s="29"/>
       <c r="C33" s="29"/>
       <c r="D33" s="29"/>
-      <c r="E33" s="58"/>
+      <c r="E33" s="76"/>
       <c r="F33" s="47" t="s">
         <v>38</v>
       </c>
       <c r="G33" s="14"/>
-      <c r="H33" s="14"/>
+      <c r="H33" s="56">
+        <v>44728</v>
+      </c>
       <c r="I33" s="12"/>
       <c r="J33" s="23"/>
       <c r="K33" s="5"/>
@@ -2758,12 +2820,14 @@
       <c r="B34" s="29"/>
       <c r="C34" s="29"/>
       <c r="D34" s="29"/>
-      <c r="E34" s="58"/>
+      <c r="E34" s="76"/>
       <c r="F34" s="47" t="s">
         <v>39</v>
       </c>
       <c r="G34" s="14"/>
-      <c r="H34" s="14"/>
+      <c r="H34" s="55">
+        <v>44728</v>
+      </c>
       <c r="I34" s="12"/>
       <c r="J34" s="23"/>
       <c r="K34" s="5"/>
@@ -2791,12 +2855,14 @@
       <c r="B35" s="29"/>
       <c r="C35" s="29"/>
       <c r="D35" s="29"/>
-      <c r="E35" s="58"/>
+      <c r="E35" s="76"/>
       <c r="F35" s="47" t="s">
         <v>40</v>
       </c>
       <c r="G35" s="21"/>
-      <c r="H35" s="21"/>
+      <c r="H35" s="56">
+        <v>44728</v>
+      </c>
       <c r="I35" s="16"/>
       <c r="J35" s="35"/>
       <c r="K35" s="17"/>
@@ -2824,12 +2890,14 @@
       <c r="B36" s="29"/>
       <c r="C36" s="29"/>
       <c r="D36" s="29"/>
-      <c r="E36" s="58"/>
+      <c r="E36" s="76"/>
       <c r="F36" s="47" t="s">
         <v>41</v>
       </c>
       <c r="G36" s="14"/>
-      <c r="H36" s="14"/>
+      <c r="H36" s="55">
+        <v>44728</v>
+      </c>
       <c r="I36" s="12"/>
       <c r="J36" s="23"/>
       <c r="K36" s="5"/>
@@ -2857,12 +2925,14 @@
       <c r="B37" s="29"/>
       <c r="C37" s="29"/>
       <c r="D37" s="29"/>
-      <c r="E37" s="58"/>
+      <c r="E37" s="76"/>
       <c r="F37" s="47" t="s">
         <v>42</v>
       </c>
       <c r="G37" s="21"/>
-      <c r="H37" s="21"/>
+      <c r="H37" s="56">
+        <v>44728</v>
+      </c>
       <c r="I37" s="16"/>
       <c r="J37" s="23"/>
       <c r="K37" s="17"/>
@@ -2890,12 +2960,14 @@
       <c r="B38" s="29"/>
       <c r="C38" s="29"/>
       <c r="D38" s="29"/>
-      <c r="E38" s="58"/>
+      <c r="E38" s="76"/>
       <c r="F38" s="47" t="s">
         <v>43</v>
       </c>
       <c r="G38" s="21"/>
-      <c r="H38" s="21"/>
+      <c r="H38" s="55">
+        <v>44728</v>
+      </c>
       <c r="I38" s="16"/>
       <c r="J38" s="35"/>
       <c r="K38" s="17"/>
@@ -2923,12 +2995,14 @@
       <c r="B39" s="29"/>
       <c r="C39" s="29"/>
       <c r="D39" s="29"/>
-      <c r="E39" s="58"/>
+      <c r="E39" s="76"/>
       <c r="F39" s="47" t="s">
         <v>44</v>
       </c>
       <c r="G39" s="14"/>
-      <c r="H39" s="14"/>
+      <c r="H39" s="56">
+        <v>44728</v>
+      </c>
       <c r="I39" s="12"/>
       <c r="J39" s="23"/>
       <c r="K39" s="5"/>
@@ -2956,12 +3030,14 @@
       <c r="B40" s="29"/>
       <c r="C40" s="29"/>
       <c r="D40" s="29"/>
-      <c r="E40" s="58"/>
+      <c r="E40" s="76"/>
       <c r="F40" s="47" t="s">
         <v>45</v>
       </c>
       <c r="G40" s="20"/>
-      <c r="H40" s="20"/>
+      <c r="H40" s="55">
+        <v>44728</v>
+      </c>
       <c r="I40" s="19"/>
       <c r="J40" s="22"/>
       <c r="K40" s="25"/>
@@ -2989,12 +3065,14 @@
       <c r="B41" s="29"/>
       <c r="C41" s="29"/>
       <c r="D41" s="29"/>
-      <c r="E41" s="59"/>
+      <c r="E41" s="77"/>
       <c r="F41" s="48" t="s">
         <v>46</v>
       </c>
       <c r="G41" s="15"/>
-      <c r="H41" s="15"/>
+      <c r="H41" s="59">
+        <v>44728</v>
+      </c>
       <c r="I41" s="13"/>
       <c r="J41" s="24"/>
       <c r="K41" s="5"/>
@@ -3022,14 +3100,16 @@
       <c r="B42" s="29"/>
       <c r="C42" s="29"/>
       <c r="D42" s="29"/>
-      <c r="E42" s="60" t="s">
+      <c r="E42" s="78" t="s">
         <v>71</v>
       </c>
       <c r="F42" s="49" t="s">
         <v>47</v>
       </c>
       <c r="G42" s="20"/>
-      <c r="H42" s="20"/>
+      <c r="H42" s="55">
+        <v>44728</v>
+      </c>
       <c r="I42" s="19"/>
       <c r="J42" s="22"/>
       <c r="K42" s="5"/>
@@ -3057,12 +3137,14 @@
       <c r="B43" s="29"/>
       <c r="C43" s="29"/>
       <c r="D43" s="29"/>
-      <c r="E43" s="61"/>
+      <c r="E43" s="79"/>
       <c r="F43" s="50" t="s">
         <v>48</v>
       </c>
       <c r="G43" s="14"/>
-      <c r="H43" s="14"/>
+      <c r="H43" s="56">
+        <v>44728</v>
+      </c>
       <c r="I43" s="12"/>
       <c r="J43" s="23"/>
       <c r="K43" s="5"/>
@@ -3090,12 +3172,14 @@
       <c r="B44" s="29"/>
       <c r="C44" s="29"/>
       <c r="D44" s="29"/>
-      <c r="E44" s="61"/>
+      <c r="E44" s="79"/>
       <c r="F44" s="50" t="s">
         <v>49</v>
       </c>
       <c r="G44" s="14"/>
-      <c r="H44" s="14"/>
+      <c r="H44" s="55">
+        <v>44728</v>
+      </c>
       <c r="I44" s="12"/>
       <c r="J44" s="23"/>
       <c r="K44" s="5"/>
@@ -3123,12 +3207,14 @@
       <c r="B45" s="29"/>
       <c r="C45" s="29"/>
       <c r="D45" s="29"/>
-      <c r="E45" s="61"/>
+      <c r="E45" s="79"/>
       <c r="F45" s="50" t="s">
         <v>50</v>
       </c>
       <c r="G45" s="14"/>
-      <c r="H45" s="14"/>
+      <c r="H45" s="56">
+        <v>44728</v>
+      </c>
       <c r="I45" s="12"/>
       <c r="J45" s="23"/>
       <c r="K45" s="5"/>
@@ -3156,12 +3242,14 @@
       <c r="B46" s="29"/>
       <c r="C46" s="29"/>
       <c r="D46" s="29"/>
-      <c r="E46" s="61"/>
+      <c r="E46" s="79"/>
       <c r="F46" s="50" t="s">
         <v>51</v>
       </c>
       <c r="G46" s="14"/>
-      <c r="H46" s="14"/>
+      <c r="H46" s="55">
+        <v>44728</v>
+      </c>
       <c r="I46" s="12"/>
       <c r="J46" s="23"/>
       <c r="K46" s="5"/>
@@ -3189,12 +3277,14 @@
       <c r="B47" s="29"/>
       <c r="C47" s="29"/>
       <c r="D47" s="29"/>
-      <c r="E47" s="61"/>
+      <c r="E47" s="79"/>
       <c r="F47" s="50" t="s">
         <v>52</v>
       </c>
       <c r="G47" s="14"/>
-      <c r="H47" s="14"/>
+      <c r="H47" s="56">
+        <v>44728</v>
+      </c>
       <c r="I47" s="12"/>
       <c r="J47" s="23"/>
       <c r="K47" s="5"/>
@@ -3222,12 +3312,14 @@
       <c r="B48" s="29"/>
       <c r="C48" s="29"/>
       <c r="D48" s="29"/>
-      <c r="E48" s="61"/>
+      <c r="E48" s="79"/>
       <c r="F48" s="50" t="s">
         <v>53</v>
       </c>
       <c r="G48" s="14"/>
-      <c r="H48" s="14"/>
+      <c r="H48" s="55">
+        <v>44728</v>
+      </c>
       <c r="I48" s="12"/>
       <c r="J48" s="23"/>
       <c r="K48" s="5"/>
@@ -3255,12 +3347,14 @@
       <c r="B49" s="29"/>
       <c r="C49" s="29"/>
       <c r="D49" s="29"/>
-      <c r="E49" s="61"/>
+      <c r="E49" s="79"/>
       <c r="F49" s="50" t="s">
         <v>54</v>
       </c>
       <c r="G49" s="14"/>
-      <c r="H49" s="14"/>
+      <c r="H49" s="56">
+        <v>44728</v>
+      </c>
       <c r="I49" s="12"/>
       <c r="J49" s="23"/>
       <c r="K49" s="5"/>
@@ -3288,12 +3382,14 @@
       <c r="B50" s="29"/>
       <c r="C50" s="29"/>
       <c r="D50" s="29"/>
-      <c r="E50" s="61"/>
+      <c r="E50" s="79"/>
       <c r="F50" s="50" t="s">
         <v>55</v>
       </c>
       <c r="G50" s="21"/>
-      <c r="H50" s="21"/>
+      <c r="H50" s="55">
+        <v>44728</v>
+      </c>
       <c r="I50" s="16"/>
       <c r="J50" s="35"/>
       <c r="K50" s="17"/>
@@ -3321,12 +3417,14 @@
       <c r="B51" s="29"/>
       <c r="C51" s="29"/>
       <c r="D51" s="29"/>
-      <c r="E51" s="61"/>
+      <c r="E51" s="79"/>
       <c r="F51" s="50" t="s">
         <v>56</v>
       </c>
       <c r="G51" s="14"/>
-      <c r="H51" s="14"/>
+      <c r="H51" s="56">
+        <v>44728</v>
+      </c>
       <c r="I51" s="12"/>
       <c r="J51" s="23"/>
       <c r="K51" s="5"/>
@@ -3354,12 +3452,14 @@
       <c r="B52" s="29"/>
       <c r="C52" s="29"/>
       <c r="D52" s="29"/>
-      <c r="E52" s="62"/>
+      <c r="E52" s="80"/>
       <c r="F52" s="51" t="s">
         <v>57</v>
       </c>
       <c r="G52" s="15"/>
-      <c r="H52" s="15"/>
+      <c r="H52" s="59">
+        <v>44728</v>
+      </c>
       <c r="I52" s="13"/>
       <c r="J52" s="24"/>
       <c r="K52" s="5"/>
@@ -3387,14 +3487,16 @@
       <c r="B53" s="29"/>
       <c r="C53" s="29"/>
       <c r="D53" s="29"/>
-      <c r="E53" s="63" t="s">
+      <c r="E53" s="81" t="s">
         <v>72</v>
       </c>
       <c r="F53" s="52" t="s">
         <v>58</v>
       </c>
       <c r="G53" s="20"/>
-      <c r="H53" s="20"/>
+      <c r="H53" s="90">
+        <v>44726</v>
+      </c>
       <c r="I53" s="19"/>
       <c r="J53" s="22"/>
       <c r="K53" s="5"/>
@@ -3422,12 +3524,14 @@
       <c r="B54" s="29"/>
       <c r="C54" s="29"/>
       <c r="D54" s="29"/>
-      <c r="E54" s="64"/>
+      <c r="E54" s="82"/>
       <c r="F54" s="53" t="s">
         <v>59</v>
       </c>
       <c r="G54" s="14"/>
-      <c r="H54" s="14"/>
+      <c r="H54" s="55">
+        <v>44726</v>
+      </c>
       <c r="I54" s="12"/>
       <c r="J54" s="23"/>
       <c r="K54" s="5"/>
@@ -3455,12 +3559,14 @@
       <c r="B55" s="29"/>
       <c r="C55" s="29"/>
       <c r="D55" s="29"/>
-      <c r="E55" s="64"/>
+      <c r="E55" s="82"/>
       <c r="F55" s="53" t="s">
         <v>60</v>
       </c>
       <c r="G55" s="14"/>
-      <c r="H55" s="14"/>
+      <c r="H55" s="90">
+        <v>44726</v>
+      </c>
       <c r="I55" s="12"/>
       <c r="J55" s="23"/>
       <c r="K55" s="5"/>
@@ -3488,12 +3594,14 @@
       <c r="B56" s="29"/>
       <c r="C56" s="29"/>
       <c r="D56" s="29"/>
-      <c r="E56" s="64"/>
+      <c r="E56" s="82"/>
       <c r="F56" s="53" t="s">
         <v>61</v>
       </c>
       <c r="G56" s="21"/>
-      <c r="H56" s="21"/>
+      <c r="H56" s="55">
+        <v>44726</v>
+      </c>
       <c r="I56" s="16"/>
       <c r="J56" s="35"/>
       <c r="K56" s="17"/>
@@ -3521,12 +3629,14 @@
       <c r="B57" s="29"/>
       <c r="C57" s="29"/>
       <c r="D57" s="29"/>
-      <c r="E57" s="64"/>
+      <c r="E57" s="82"/>
       <c r="F57" s="53" t="s">
         <v>62</v>
       </c>
       <c r="G57" s="14"/>
-      <c r="H57" s="14"/>
+      <c r="H57" s="90">
+        <v>44726</v>
+      </c>
       <c r="I57" s="12"/>
       <c r="J57" s="23"/>
       <c r="K57" s="5"/>
@@ -3554,12 +3664,14 @@
       <c r="B58" s="29"/>
       <c r="C58" s="29"/>
       <c r="D58" s="29"/>
-      <c r="E58" s="64"/>
+      <c r="E58" s="82"/>
       <c r="F58" s="53" t="s">
         <v>63</v>
       </c>
       <c r="G58" s="14"/>
-      <c r="H58" s="14"/>
+      <c r="H58" s="55">
+        <v>44726</v>
+      </c>
       <c r="I58" s="12"/>
       <c r="J58" s="23"/>
       <c r="K58" s="5"/>
@@ -3587,12 +3699,14 @@
       <c r="B59" s="29"/>
       <c r="C59" s="29"/>
       <c r="D59" s="29"/>
-      <c r="E59" s="64"/>
+      <c r="E59" s="82"/>
       <c r="F59" s="53" t="s">
         <v>64</v>
       </c>
       <c r="G59" s="14"/>
-      <c r="H59" s="14"/>
+      <c r="H59" s="90">
+        <v>44726</v>
+      </c>
       <c r="I59" s="12"/>
       <c r="J59" s="23"/>
       <c r="K59" s="5"/>
@@ -3620,12 +3734,14 @@
       <c r="B60" s="29"/>
       <c r="C60" s="29"/>
       <c r="D60" s="29"/>
-      <c r="E60" s="64"/>
+      <c r="E60" s="82"/>
       <c r="F60" s="53" t="s">
         <v>65</v>
       </c>
       <c r="G60" s="14"/>
-      <c r="H60" s="14"/>
+      <c r="H60" s="55">
+        <v>44726</v>
+      </c>
       <c r="I60" s="12"/>
       <c r="J60" s="23"/>
       <c r="K60" s="5"/>
@@ -3653,12 +3769,14 @@
       <c r="B61" s="29"/>
       <c r="C61" s="29"/>
       <c r="D61" s="29"/>
-      <c r="E61" s="64"/>
+      <c r="E61" s="82"/>
       <c r="F61" s="53" t="s">
         <v>66</v>
       </c>
       <c r="G61" s="14"/>
-      <c r="H61" s="14"/>
+      <c r="H61" s="90">
+        <v>44726</v>
+      </c>
       <c r="I61" s="12"/>
       <c r="J61" s="23"/>
       <c r="K61" s="5"/>
@@ -3686,12 +3804,14 @@
       <c r="B62" s="29"/>
       <c r="C62" s="29"/>
       <c r="D62" s="29"/>
-      <c r="E62" s="64"/>
+      <c r="E62" s="82"/>
       <c r="F62" s="53" t="s">
         <v>67</v>
       </c>
       <c r="G62" s="21"/>
-      <c r="H62" s="21"/>
+      <c r="H62" s="55">
+        <v>44726</v>
+      </c>
       <c r="I62" s="16"/>
       <c r="J62" s="35"/>
       <c r="K62" s="17"/>
@@ -3719,12 +3839,14 @@
       <c r="B63" s="30"/>
       <c r="C63" s="30"/>
       <c r="D63" s="30"/>
-      <c r="E63" s="65"/>
+      <c r="E63" s="83"/>
       <c r="F63" s="54" t="s">
         <v>68</v>
       </c>
       <c r="G63" s="15"/>
-      <c r="H63" s="15"/>
+      <c r="H63" s="59">
+        <v>44726</v>
+      </c>
       <c r="I63" s="13"/>
       <c r="J63" s="24"/>
       <c r="K63" s="10"/>
@@ -3750,6 +3872,13 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="E21:E29"/>
+    <mergeCell ref="E30:E41"/>
+    <mergeCell ref="E42:E52"/>
+    <mergeCell ref="E53:E63"/>
+    <mergeCell ref="H5:H7"/>
+    <mergeCell ref="E8:E17"/>
+    <mergeCell ref="E18:E20"/>
     <mergeCell ref="I5:I7"/>
     <mergeCell ref="J5:J7"/>
     <mergeCell ref="B5:B7"/>
@@ -3758,13 +3887,6 @@
     <mergeCell ref="E5:E7"/>
     <mergeCell ref="F5:F7"/>
     <mergeCell ref="G5:G7"/>
-    <mergeCell ref="E21:E29"/>
-    <mergeCell ref="E30:E41"/>
-    <mergeCell ref="E42:E52"/>
-    <mergeCell ref="E53:E63"/>
-    <mergeCell ref="H5:H7"/>
-    <mergeCell ref="E8:E17"/>
-    <mergeCell ref="E18:E20"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/議事録/6月スケジュール・進捗.xlsx
+++ b/doc/議事録/6月スケジュール・進捗.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\議事録\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78EA992C-365C-4E67-8BC6-359AAE6C577F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03C6E002-C882-43D0-8135-48B81DC36343}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EF38ED0C-2E44-4635-8BF2-3FB90485B04B}"/>
   </bookViews>
@@ -963,7 +963,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1153,6 +1153,30 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1234,16 +1258,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1570,8 +1585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E4E062F-53B0-43EA-8BD7-13462A9EF8FE}">
   <dimension ref="A1:AD63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N65" sqref="N65"/>
+    <sheetView tabSelected="1" topLeftCell="C4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1616,31 +1631,31 @@
     </row>
     <row r="4" spans="1:30" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="5" spans="1:30" x14ac:dyDescent="0.4">
-      <c r="B5" s="63" t="s">
+      <c r="B5" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="63" t="s">
+      <c r="C5" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="69" t="s">
+      <c r="D5" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="63" t="s">
+      <c r="E5" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="63" t="s">
+      <c r="F5" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="63" t="s">
+      <c r="G5" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="63" t="s">
+      <c r="H5" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="63" t="s">
+      <c r="I5" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="66" t="s">
+      <c r="J5" s="74" t="s">
         <v>10</v>
       </c>
       <c r="K5" s="6">
@@ -1705,15 +1720,15 @@
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.4">
-      <c r="B6" s="64"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="70"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="64"/>
-      <c r="H6" s="64"/>
-      <c r="I6" s="64"/>
-      <c r="J6" s="67"/>
+      <c r="B6" s="72"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="72"/>
+      <c r="H6" s="72"/>
+      <c r="I6" s="72"/>
+      <c r="J6" s="75"/>
       <c r="K6" s="4">
         <v>44722</v>
       </c>
@@ -1776,15 +1791,15 @@
       </c>
     </row>
     <row r="7" spans="1:30" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="65"/>
-      <c r="C7" s="65"/>
-      <c r="D7" s="71"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="65"/>
-      <c r="G7" s="65"/>
-      <c r="H7" s="65"/>
-      <c r="I7" s="65"/>
-      <c r="J7" s="68"/>
+      <c r="B7" s="73"/>
+      <c r="C7" s="73"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="80"/>
+      <c r="F7" s="73"/>
+      <c r="G7" s="73"/>
+      <c r="H7" s="73"/>
+      <c r="I7" s="73"/>
+      <c r="J7" s="76"/>
       <c r="K7" s="27">
         <v>44722</v>
       </c>
@@ -1856,7 +1871,7 @@
       <c r="D8" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="E8" s="84" t="s">
+      <c r="E8" s="92" t="s">
         <v>21</v>
       </c>
       <c r="F8" s="37" t="s">
@@ -1877,7 +1892,7 @@
       <c r="M8" s="32"/>
       <c r="N8" s="57"/>
       <c r="O8" s="57"/>
-      <c r="P8" s="25"/>
+      <c r="P8" s="57"/>
       <c r="Q8" s="25"/>
       <c r="R8" s="25"/>
       <c r="S8" s="31"/>
@@ -1897,7 +1912,7 @@
       <c r="B9" s="29"/>
       <c r="C9" s="29"/>
       <c r="D9" s="29"/>
-      <c r="E9" s="85"/>
+      <c r="E9" s="93"/>
       <c r="F9" s="38" t="s">
         <v>12</v>
       </c>
@@ -1916,7 +1931,7 @@
       <c r="M9" s="32"/>
       <c r="N9" s="58"/>
       <c r="O9" s="58"/>
-      <c r="P9" s="5"/>
+      <c r="P9" s="58"/>
       <c r="Q9" s="5"/>
       <c r="R9" s="5"/>
       <c r="S9" s="31"/>
@@ -1936,7 +1951,7 @@
       <c r="B10" s="29"/>
       <c r="C10" s="29"/>
       <c r="D10" s="29"/>
-      <c r="E10" s="85"/>
+      <c r="E10" s="93"/>
       <c r="F10" s="38" t="s">
         <v>13</v>
       </c>
@@ -1953,7 +1968,7 @@
       <c r="M10" s="32"/>
       <c r="N10" s="58"/>
       <c r="O10" s="58"/>
-      <c r="P10" s="5"/>
+      <c r="P10" s="58"/>
       <c r="Q10" s="5"/>
       <c r="R10" s="5"/>
       <c r="S10" s="31"/>
@@ -1973,7 +1988,7 @@
       <c r="B11" s="29"/>
       <c r="C11" s="29"/>
       <c r="D11" s="29"/>
-      <c r="E11" s="85"/>
+      <c r="E11" s="93"/>
       <c r="F11" s="38" t="s">
         <v>14</v>
       </c>
@@ -1990,7 +2005,7 @@
       <c r="M11" s="32"/>
       <c r="N11" s="58"/>
       <c r="O11" s="58"/>
-      <c r="P11" s="5"/>
+      <c r="P11" s="58"/>
       <c r="Q11" s="5"/>
       <c r="R11" s="5"/>
       <c r="S11" s="31"/>
@@ -2010,7 +2025,7 @@
       <c r="B12" s="29"/>
       <c r="C12" s="29"/>
       <c r="D12" s="29"/>
-      <c r="E12" s="85"/>
+      <c r="E12" s="93"/>
       <c r="F12" s="38" t="s">
         <v>15</v>
       </c>
@@ -2027,7 +2042,7 @@
       <c r="M12" s="32"/>
       <c r="N12" s="58"/>
       <c r="O12" s="58"/>
-      <c r="P12" s="5"/>
+      <c r="P12" s="58"/>
       <c r="Q12" s="5"/>
       <c r="R12" s="5"/>
       <c r="S12" s="31"/>
@@ -2047,7 +2062,7 @@
       <c r="B13" s="29"/>
       <c r="C13" s="29"/>
       <c r="D13" s="29"/>
-      <c r="E13" s="85"/>
+      <c r="E13" s="93"/>
       <c r="F13" s="38" t="s">
         <v>16</v>
       </c>
@@ -2064,7 +2079,7 @@
       <c r="M13" s="32"/>
       <c r="N13" s="58"/>
       <c r="O13" s="58"/>
-      <c r="P13" s="5"/>
+      <c r="P13" s="58"/>
       <c r="Q13" s="5"/>
       <c r="R13" s="5"/>
       <c r="S13" s="31"/>
@@ -2084,7 +2099,7 @@
       <c r="B14" s="29"/>
       <c r="C14" s="29"/>
       <c r="D14" s="29"/>
-      <c r="E14" s="85"/>
+      <c r="E14" s="93"/>
       <c r="F14" s="38" t="s">
         <v>17</v>
       </c>
@@ -2101,7 +2116,7 @@
       <c r="M14" s="32"/>
       <c r="N14" s="58"/>
       <c r="O14" s="58"/>
-      <c r="P14" s="5"/>
+      <c r="P14" s="58"/>
       <c r="Q14" s="5"/>
       <c r="R14" s="5"/>
       <c r="S14" s="31"/>
@@ -2121,7 +2136,7 @@
       <c r="B15" s="29"/>
       <c r="C15" s="29"/>
       <c r="D15" s="29"/>
-      <c r="E15" s="85"/>
+      <c r="E15" s="93"/>
       <c r="F15" s="38" t="s">
         <v>18</v>
       </c>
@@ -2138,7 +2153,7 @@
       <c r="M15" s="32"/>
       <c r="N15" s="58"/>
       <c r="O15" s="58"/>
-      <c r="P15" s="5"/>
+      <c r="P15" s="58"/>
       <c r="Q15" s="5"/>
       <c r="R15" s="5"/>
       <c r="S15" s="31"/>
@@ -2158,7 +2173,7 @@
       <c r="B16" s="29"/>
       <c r="C16" s="29"/>
       <c r="D16" s="29"/>
-      <c r="E16" s="85"/>
+      <c r="E16" s="93"/>
       <c r="F16" s="38" t="s">
         <v>19</v>
       </c>
@@ -2177,7 +2192,7 @@
       <c r="M16" s="32"/>
       <c r="N16" s="58"/>
       <c r="O16" s="58"/>
-      <c r="P16" s="5"/>
+      <c r="P16" s="58"/>
       <c r="Q16" s="5"/>
       <c r="R16" s="5"/>
       <c r="S16" s="31"/>
@@ -2197,7 +2212,7 @@
       <c r="B17" s="29"/>
       <c r="C17" s="29"/>
       <c r="D17" s="29"/>
-      <c r="E17" s="86"/>
+      <c r="E17" s="94"/>
       <c r="F17" s="39" t="s">
         <v>20</v>
       </c>
@@ -2211,32 +2226,32 @@
       <c r="J17" s="62">
         <v>0.7</v>
       </c>
-      <c r="K17" s="58"/>
-      <c r="L17" s="31"/>
-      <c r="M17" s="32"/>
-      <c r="N17" s="58"/>
-      <c r="O17" s="58"/>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="5"/>
-      <c r="R17" s="5"/>
-      <c r="S17" s="31"/>
-      <c r="T17" s="32"/>
-      <c r="U17" s="5"/>
-      <c r="V17" s="5"/>
-      <c r="W17" s="5"/>
-      <c r="X17" s="5"/>
-      <c r="Y17" s="5"/>
-      <c r="Z17" s="31"/>
-      <c r="AA17" s="32"/>
-      <c r="AB17" s="5"/>
-      <c r="AC17" s="5"/>
-      <c r="AD17" s="9"/>
+      <c r="K17" s="45"/>
+      <c r="L17" s="33"/>
+      <c r="M17" s="34"/>
+      <c r="N17" s="70"/>
+      <c r="O17" s="70"/>
+      <c r="P17" s="70"/>
+      <c r="Q17" s="10"/>
+      <c r="R17" s="10"/>
+      <c r="S17" s="33"/>
+      <c r="T17" s="34"/>
+      <c r="U17" s="10"/>
+      <c r="V17" s="10"/>
+      <c r="W17" s="10"/>
+      <c r="X17" s="10"/>
+      <c r="Y17" s="10"/>
+      <c r="Z17" s="33"/>
+      <c r="AA17" s="34"/>
+      <c r="AB17" s="10"/>
+      <c r="AC17" s="10"/>
+      <c r="AD17" s="11"/>
     </row>
     <row r="18" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B18" s="29"/>
       <c r="C18" s="29"/>
       <c r="D18" s="29"/>
-      <c r="E18" s="87" t="s">
+      <c r="E18" s="95" t="s">
         <v>25</v>
       </c>
       <c r="F18" s="40" t="s">
@@ -2244,42 +2259,42 @@
       </c>
       <c r="G18" s="20"/>
       <c r="H18" s="55">
-        <v>44725</v>
+        <v>44728</v>
       </c>
       <c r="I18" s="19"/>
       <c r="J18" s="22"/>
-      <c r="K18" s="5"/>
+      <c r="K18" s="25"/>
       <c r="L18" s="31"/>
       <c r="M18" s="32"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
-      <c r="P18" s="5"/>
-      <c r="Q18" s="5"/>
-      <c r="R18" s="5"/>
+      <c r="N18" s="25"/>
+      <c r="O18" s="25"/>
+      <c r="P18" s="25"/>
+      <c r="Q18" s="57"/>
+      <c r="R18" s="57"/>
       <c r="S18" s="31"/>
       <c r="T18" s="32"/>
-      <c r="U18" s="5"/>
-      <c r="V18" s="5"/>
-      <c r="W18" s="5"/>
-      <c r="X18" s="5"/>
-      <c r="Y18" s="5"/>
+      <c r="U18" s="57"/>
+      <c r="V18" s="57"/>
+      <c r="W18" s="57"/>
+      <c r="X18" s="57"/>
+      <c r="Y18" s="57"/>
       <c r="Z18" s="31"/>
       <c r="AA18" s="32"/>
-      <c r="AB18" s="5"/>
-      <c r="AC18" s="5"/>
-      <c r="AD18" s="9"/>
+      <c r="AB18" s="25"/>
+      <c r="AC18" s="25"/>
+      <c r="AD18" s="26"/>
     </row>
     <row r="19" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B19" s="29"/>
       <c r="C19" s="29"/>
       <c r="D19" s="29"/>
-      <c r="E19" s="88"/>
+      <c r="E19" s="96"/>
       <c r="F19" s="41" t="s">
         <v>23</v>
       </c>
       <c r="G19" s="14"/>
       <c r="H19" s="56">
-        <v>44725</v>
+        <v>44728</v>
       </c>
       <c r="I19" s="12"/>
       <c r="J19" s="23"/>
@@ -2289,15 +2304,15 @@
       <c r="N19" s="5"/>
       <c r="O19" s="5"/>
       <c r="P19" s="5"/>
-      <c r="Q19" s="5"/>
-      <c r="R19" s="5"/>
+      <c r="Q19" s="58"/>
+      <c r="R19" s="58"/>
       <c r="S19" s="31"/>
       <c r="T19" s="32"/>
-      <c r="U19" s="5"/>
-      <c r="V19" s="5"/>
-      <c r="W19" s="5"/>
-      <c r="X19" s="5"/>
-      <c r="Y19" s="5"/>
+      <c r="U19" s="58"/>
+      <c r="V19" s="58"/>
+      <c r="W19" s="58"/>
+      <c r="X19" s="58"/>
+      <c r="Y19" s="58"/>
       <c r="Z19" s="31"/>
       <c r="AA19" s="32"/>
       <c r="AB19" s="5"/>
@@ -2308,42 +2323,42 @@
       <c r="B20" s="29"/>
       <c r="C20" s="29"/>
       <c r="D20" s="29"/>
-      <c r="E20" s="89"/>
+      <c r="E20" s="97"/>
       <c r="F20" s="42" t="s">
         <v>24</v>
       </c>
       <c r="G20" s="15"/>
-      <c r="H20" s="93">
-        <v>44725</v>
+      <c r="H20" s="66">
+        <v>44728</v>
       </c>
       <c r="I20" s="13"/>
       <c r="J20" s="24"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="31"/>
-      <c r="M20" s="32"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="5"/>
-      <c r="P20" s="5"/>
-      <c r="Q20" s="5"/>
-      <c r="R20" s="5"/>
-      <c r="S20" s="31"/>
-      <c r="T20" s="32"/>
-      <c r="U20" s="5"/>
-      <c r="V20" s="5"/>
-      <c r="W20" s="5"/>
-      <c r="X20" s="5"/>
-      <c r="Y20" s="5"/>
-      <c r="Z20" s="31"/>
-      <c r="AA20" s="32"/>
-      <c r="AB20" s="5"/>
-      <c r="AC20" s="5"/>
-      <c r="AD20" s="9"/>
+      <c r="K20" s="98"/>
+      <c r="L20" s="33"/>
+      <c r="M20" s="34"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="70"/>
+      <c r="R20" s="70"/>
+      <c r="S20" s="33"/>
+      <c r="T20" s="34"/>
+      <c r="U20" s="70"/>
+      <c r="V20" s="70"/>
+      <c r="W20" s="70"/>
+      <c r="X20" s="70"/>
+      <c r="Y20" s="70"/>
+      <c r="Z20" s="33"/>
+      <c r="AA20" s="34"/>
+      <c r="AB20" s="10"/>
+      <c r="AC20" s="10"/>
+      <c r="AD20" s="11"/>
     </row>
     <row r="21" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B21" s="29"/>
       <c r="C21" s="29"/>
       <c r="D21" s="29"/>
-      <c r="E21" s="73" t="s">
+      <c r="E21" s="81" t="s">
         <v>69</v>
       </c>
       <c r="F21" s="43" t="s">
@@ -2353,36 +2368,38 @@
       <c r="H21" s="55">
         <v>44725</v>
       </c>
-      <c r="I21" s="90">
+      <c r="I21" s="63">
         <v>44725</v>
       </c>
-      <c r="J21" s="22"/>
-      <c r="K21" s="5"/>
+      <c r="J21" s="68">
+        <v>1</v>
+      </c>
+      <c r="K21" s="25"/>
       <c r="L21" s="31"/>
       <c r="M21" s="32"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="5"/>
-      <c r="P21" s="5"/>
-      <c r="Q21" s="5"/>
-      <c r="R21" s="5"/>
+      <c r="N21" s="57"/>
+      <c r="O21" s="25"/>
+      <c r="P21" s="25"/>
+      <c r="Q21" s="25"/>
+      <c r="R21" s="25"/>
       <c r="S21" s="31"/>
       <c r="T21" s="32"/>
-      <c r="U21" s="5"/>
-      <c r="V21" s="5"/>
-      <c r="W21" s="5"/>
-      <c r="X21" s="5"/>
-      <c r="Y21" s="5"/>
+      <c r="U21" s="25"/>
+      <c r="V21" s="25"/>
+      <c r="W21" s="25"/>
+      <c r="X21" s="25"/>
+      <c r="Y21" s="25"/>
       <c r="Z21" s="31"/>
       <c r="AA21" s="32"/>
-      <c r="AB21" s="5"/>
-      <c r="AC21" s="5"/>
-      <c r="AD21" s="9"/>
+      <c r="AB21" s="25"/>
+      <c r="AC21" s="25"/>
+      <c r="AD21" s="26"/>
     </row>
     <row r="22" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B22" s="29"/>
       <c r="C22" s="29"/>
       <c r="D22" s="29"/>
-      <c r="E22" s="73"/>
+      <c r="E22" s="81"/>
       <c r="F22" s="44" t="s">
         <v>27</v>
       </c>
@@ -2390,14 +2407,16 @@
       <c r="H22" s="55">
         <v>44725</v>
       </c>
-      <c r="I22" s="91">
+      <c r="I22" s="64">
         <v>44725</v>
       </c>
-      <c r="J22" s="23"/>
+      <c r="J22" s="68">
+        <v>1</v>
+      </c>
       <c r="K22" s="17"/>
       <c r="L22" s="31"/>
       <c r="M22" s="32"/>
-      <c r="N22" s="17"/>
+      <c r="N22" s="67"/>
       <c r="O22" s="17"/>
       <c r="P22" s="17"/>
       <c r="Q22" s="17"/>
@@ -2419,7 +2438,7 @@
       <c r="B23" s="29"/>
       <c r="C23" s="29"/>
       <c r="D23" s="29"/>
-      <c r="E23" s="73"/>
+      <c r="E23" s="81"/>
       <c r="F23" s="44" t="s">
         <v>28</v>
       </c>
@@ -2427,14 +2446,16 @@
       <c r="H23" s="55">
         <v>44725</v>
       </c>
-      <c r="I23" s="90">
+      <c r="I23" s="63">
         <v>44725</v>
       </c>
-      <c r="J23" s="35"/>
+      <c r="J23" s="68">
+        <v>1</v>
+      </c>
       <c r="K23" s="17"/>
       <c r="L23" s="31"/>
       <c r="M23" s="32"/>
-      <c r="N23" s="17"/>
+      <c r="N23" s="67"/>
       <c r="O23" s="17"/>
       <c r="P23" s="17"/>
       <c r="Q23" s="17"/>
@@ -2456,7 +2477,7 @@
       <c r="B24" s="29"/>
       <c r="C24" s="29"/>
       <c r="D24" s="29"/>
-      <c r="E24" s="73"/>
+      <c r="E24" s="81"/>
       <c r="F24" s="44" t="s">
         <v>29</v>
       </c>
@@ -2464,14 +2485,16 @@
       <c r="H24" s="55">
         <v>44725</v>
       </c>
-      <c r="I24" s="91">
+      <c r="I24" s="64">
         <v>44725</v>
       </c>
-      <c r="J24" s="23"/>
+      <c r="J24" s="68">
+        <v>1</v>
+      </c>
       <c r="K24" s="5"/>
       <c r="L24" s="31"/>
       <c r="M24" s="32"/>
-      <c r="N24" s="5"/>
+      <c r="N24" s="58"/>
       <c r="O24" s="5"/>
       <c r="P24" s="5"/>
       <c r="Q24" s="5"/>
@@ -2493,7 +2516,7 @@
       <c r="B25" s="29"/>
       <c r="C25" s="29"/>
       <c r="D25" s="29"/>
-      <c r="E25" s="73"/>
+      <c r="E25" s="81"/>
       <c r="F25" s="44" t="s">
         <v>30</v>
       </c>
@@ -2501,14 +2524,16 @@
       <c r="H25" s="55">
         <v>44725</v>
       </c>
-      <c r="I25" s="90">
+      <c r="I25" s="63">
         <v>44725</v>
       </c>
-      <c r="J25" s="22"/>
+      <c r="J25" s="68">
+        <v>1</v>
+      </c>
       <c r="K25" s="25"/>
       <c r="L25" s="31"/>
       <c r="M25" s="32"/>
-      <c r="N25" s="25"/>
+      <c r="N25" s="57"/>
       <c r="O25" s="25"/>
       <c r="P25" s="25"/>
       <c r="Q25" s="25"/>
@@ -2530,7 +2555,7 @@
       <c r="B26" s="29"/>
       <c r="C26" s="29"/>
       <c r="D26" s="29"/>
-      <c r="E26" s="73"/>
+      <c r="E26" s="81"/>
       <c r="F26" s="44" t="s">
         <v>31</v>
       </c>
@@ -2538,14 +2563,16 @@
       <c r="H26" s="55">
         <v>44725</v>
       </c>
-      <c r="I26" s="91">
+      <c r="I26" s="64">
         <v>44725</v>
       </c>
-      <c r="J26" s="23"/>
+      <c r="J26" s="68">
+        <v>1</v>
+      </c>
       <c r="K26" s="5"/>
       <c r="L26" s="31"/>
       <c r="M26" s="32"/>
-      <c r="N26" s="5"/>
+      <c r="N26" s="58"/>
       <c r="O26" s="5"/>
       <c r="P26" s="5"/>
       <c r="Q26" s="5"/>
@@ -2567,7 +2594,7 @@
       <c r="B27" s="29"/>
       <c r="C27" s="29"/>
       <c r="D27" s="29"/>
-      <c r="E27" s="73"/>
+      <c r="E27" s="81"/>
       <c r="F27" s="44" t="s">
         <v>32</v>
       </c>
@@ -2575,14 +2602,16 @@
       <c r="H27" s="55">
         <v>44725</v>
       </c>
-      <c r="I27" s="90">
+      <c r="I27" s="63">
         <v>44725</v>
       </c>
-      <c r="J27" s="23"/>
+      <c r="J27" s="68">
+        <v>1</v>
+      </c>
       <c r="K27" s="5"/>
       <c r="L27" s="31"/>
       <c r="M27" s="32"/>
-      <c r="N27" s="5"/>
+      <c r="N27" s="58"/>
       <c r="O27" s="5"/>
       <c r="P27" s="5"/>
       <c r="Q27" s="5"/>
@@ -2604,7 +2633,7 @@
       <c r="B28" s="29"/>
       <c r="C28" s="29"/>
       <c r="D28" s="29"/>
-      <c r="E28" s="73"/>
+      <c r="E28" s="81"/>
       <c r="F28" s="44" t="s">
         <v>33</v>
       </c>
@@ -2612,14 +2641,16 @@
       <c r="H28" s="55">
         <v>44725</v>
       </c>
-      <c r="I28" s="91">
+      <c r="I28" s="64">
         <v>44725</v>
       </c>
-      <c r="J28" s="23"/>
+      <c r="J28" s="68">
+        <v>1</v>
+      </c>
       <c r="K28" s="5"/>
       <c r="L28" s="31"/>
       <c r="M28" s="32"/>
-      <c r="N28" s="5"/>
+      <c r="N28" s="58"/>
       <c r="O28" s="5"/>
       <c r="P28" s="5"/>
       <c r="Q28" s="5"/>
@@ -2641,7 +2672,7 @@
       <c r="B29" s="29"/>
       <c r="C29" s="29"/>
       <c r="D29" s="29"/>
-      <c r="E29" s="74"/>
+      <c r="E29" s="82"/>
       <c r="F29" s="45" t="s">
         <v>34</v>
       </c>
@@ -2649,36 +2680,38 @@
       <c r="H29" s="59">
         <v>44725</v>
       </c>
-      <c r="I29" s="92">
+      <c r="I29" s="65">
         <v>44725</v>
       </c>
-      <c r="J29" s="24"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="31"/>
-      <c r="M29" s="32"/>
-      <c r="N29" s="5"/>
-      <c r="O29" s="5"/>
-      <c r="P29" s="5"/>
-      <c r="Q29" s="5"/>
-      <c r="R29" s="5"/>
-      <c r="S29" s="31"/>
-      <c r="T29" s="32"/>
-      <c r="U29" s="5"/>
-      <c r="V29" s="5"/>
-      <c r="W29" s="5"/>
-      <c r="X29" s="5"/>
-      <c r="Y29" s="5"/>
-      <c r="Z29" s="31"/>
-      <c r="AA29" s="32"/>
-      <c r="AB29" s="5"/>
-      <c r="AC29" s="5"/>
-      <c r="AD29" s="9"/>
+      <c r="J29" s="69">
+        <v>1</v>
+      </c>
+      <c r="K29" s="98"/>
+      <c r="L29" s="33"/>
+      <c r="M29" s="34"/>
+      <c r="N29" s="70"/>
+      <c r="O29" s="10"/>
+      <c r="P29" s="10"/>
+      <c r="Q29" s="10"/>
+      <c r="R29" s="10"/>
+      <c r="S29" s="33"/>
+      <c r="T29" s="34"/>
+      <c r="U29" s="10"/>
+      <c r="V29" s="10"/>
+      <c r="W29" s="10"/>
+      <c r="X29" s="10"/>
+      <c r="Y29" s="10"/>
+      <c r="Z29" s="33"/>
+      <c r="AA29" s="34"/>
+      <c r="AB29" s="10"/>
+      <c r="AC29" s="10"/>
+      <c r="AD29" s="11"/>
     </row>
     <row r="30" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B30" s="29"/>
       <c r="C30" s="29"/>
       <c r="D30" s="29"/>
-      <c r="E30" s="75" t="s">
+      <c r="E30" s="83" t="s">
         <v>70</v>
       </c>
       <c r="F30" s="46" t="s">
@@ -2690,32 +2723,32 @@
       </c>
       <c r="I30" s="19"/>
       <c r="J30" s="22"/>
-      <c r="K30" s="5"/>
+      <c r="K30" s="25"/>
       <c r="L30" s="31"/>
       <c r="M30" s="32"/>
-      <c r="N30" s="5"/>
-      <c r="O30" s="5"/>
-      <c r="P30" s="5"/>
-      <c r="Q30" s="5"/>
-      <c r="R30" s="5"/>
+      <c r="N30" s="25"/>
+      <c r="O30" s="25"/>
+      <c r="P30" s="25"/>
+      <c r="Q30" s="57"/>
+      <c r="R30" s="57"/>
       <c r="S30" s="31"/>
       <c r="T30" s="32"/>
-      <c r="U30" s="5"/>
-      <c r="V30" s="5"/>
-      <c r="W30" s="5"/>
-      <c r="X30" s="5"/>
-      <c r="Y30" s="5"/>
+      <c r="U30" s="57"/>
+      <c r="V30" s="57"/>
+      <c r="W30" s="57"/>
+      <c r="X30" s="57"/>
+      <c r="Y30" s="57"/>
       <c r="Z30" s="31"/>
       <c r="AA30" s="32"/>
-      <c r="AB30" s="5"/>
-      <c r="AC30" s="5"/>
-      <c r="AD30" s="9"/>
+      <c r="AB30" s="25"/>
+      <c r="AC30" s="25"/>
+      <c r="AD30" s="26"/>
     </row>
     <row r="31" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B31" s="29"/>
       <c r="C31" s="29"/>
       <c r="D31" s="29"/>
-      <c r="E31" s="76"/>
+      <c r="E31" s="84"/>
       <c r="F31" s="47" t="s">
         <v>36</v>
       </c>
@@ -2731,15 +2764,15 @@
       <c r="N31" s="5"/>
       <c r="O31" s="5"/>
       <c r="P31" s="5"/>
-      <c r="Q31" s="5"/>
-      <c r="R31" s="5"/>
+      <c r="Q31" s="58"/>
+      <c r="R31" s="58"/>
       <c r="S31" s="31"/>
       <c r="T31" s="32"/>
-      <c r="U31" s="5"/>
-      <c r="V31" s="5"/>
-      <c r="W31" s="5"/>
-      <c r="X31" s="5"/>
-      <c r="Y31" s="5"/>
+      <c r="U31" s="58"/>
+      <c r="V31" s="58"/>
+      <c r="W31" s="58"/>
+      <c r="X31" s="58"/>
+      <c r="Y31" s="58"/>
       <c r="Z31" s="31"/>
       <c r="AA31" s="32"/>
       <c r="AB31" s="5"/>
@@ -2750,7 +2783,7 @@
       <c r="B32" s="29"/>
       <c r="C32" s="29"/>
       <c r="D32" s="29"/>
-      <c r="E32" s="76"/>
+      <c r="E32" s="84"/>
       <c r="F32" s="47" t="s">
         <v>37</v>
       </c>
@@ -2766,15 +2799,15 @@
       <c r="N32" s="5"/>
       <c r="O32" s="5"/>
       <c r="P32" s="5"/>
-      <c r="Q32" s="5"/>
-      <c r="R32" s="5"/>
+      <c r="Q32" s="58"/>
+      <c r="R32" s="58"/>
       <c r="S32" s="31"/>
       <c r="T32" s="32"/>
-      <c r="U32" s="5"/>
-      <c r="V32" s="5"/>
-      <c r="W32" s="5"/>
-      <c r="X32" s="5"/>
-      <c r="Y32" s="5"/>
+      <c r="U32" s="58"/>
+      <c r="V32" s="58"/>
+      <c r="W32" s="58"/>
+      <c r="X32" s="58"/>
+      <c r="Y32" s="58"/>
       <c r="Z32" s="31"/>
       <c r="AA32" s="32"/>
       <c r="AB32" s="5"/>
@@ -2785,7 +2818,7 @@
       <c r="B33" s="29"/>
       <c r="C33" s="29"/>
       <c r="D33" s="29"/>
-      <c r="E33" s="76"/>
+      <c r="E33" s="84"/>
       <c r="F33" s="47" t="s">
         <v>38</v>
       </c>
@@ -2801,15 +2834,15 @@
       <c r="N33" s="5"/>
       <c r="O33" s="5"/>
       <c r="P33" s="5"/>
-      <c r="Q33" s="5"/>
-      <c r="R33" s="5"/>
+      <c r="Q33" s="58"/>
+      <c r="R33" s="58"/>
       <c r="S33" s="31"/>
       <c r="T33" s="32"/>
-      <c r="U33" s="5"/>
-      <c r="V33" s="5"/>
-      <c r="W33" s="5"/>
-      <c r="X33" s="5"/>
-      <c r="Y33" s="5"/>
+      <c r="U33" s="58"/>
+      <c r="V33" s="58"/>
+      <c r="W33" s="58"/>
+      <c r="X33" s="58"/>
+      <c r="Y33" s="58"/>
       <c r="Z33" s="31"/>
       <c r="AA33" s="32"/>
       <c r="AB33" s="5"/>
@@ -2820,7 +2853,7 @@
       <c r="B34" s="29"/>
       <c r="C34" s="29"/>
       <c r="D34" s="29"/>
-      <c r="E34" s="76"/>
+      <c r="E34" s="84"/>
       <c r="F34" s="47" t="s">
         <v>39</v>
       </c>
@@ -2836,15 +2869,15 @@
       <c r="N34" s="5"/>
       <c r="O34" s="5"/>
       <c r="P34" s="5"/>
-      <c r="Q34" s="5"/>
-      <c r="R34" s="5"/>
+      <c r="Q34" s="58"/>
+      <c r="R34" s="58"/>
       <c r="S34" s="31"/>
       <c r="T34" s="32"/>
-      <c r="U34" s="5"/>
-      <c r="V34" s="5"/>
-      <c r="W34" s="5"/>
-      <c r="X34" s="5"/>
-      <c r="Y34" s="5"/>
+      <c r="U34" s="58"/>
+      <c r="V34" s="58"/>
+      <c r="W34" s="58"/>
+      <c r="X34" s="58"/>
+      <c r="Y34" s="58"/>
       <c r="Z34" s="31"/>
       <c r="AA34" s="32"/>
       <c r="AB34" s="5"/>
@@ -2855,7 +2888,7 @@
       <c r="B35" s="29"/>
       <c r="C35" s="29"/>
       <c r="D35" s="29"/>
-      <c r="E35" s="76"/>
+      <c r="E35" s="84"/>
       <c r="F35" s="47" t="s">
         <v>40</v>
       </c>
@@ -2871,15 +2904,15 @@
       <c r="N35" s="17"/>
       <c r="O35" s="17"/>
       <c r="P35" s="17"/>
-      <c r="Q35" s="17"/>
-      <c r="R35" s="17"/>
+      <c r="Q35" s="67"/>
+      <c r="R35" s="67"/>
       <c r="S35" s="31"/>
       <c r="T35" s="32"/>
-      <c r="U35" s="17"/>
-      <c r="V35" s="17"/>
-      <c r="W35" s="17"/>
-      <c r="X35" s="17"/>
-      <c r="Y35" s="17"/>
+      <c r="U35" s="67"/>
+      <c r="V35" s="67"/>
+      <c r="W35" s="67"/>
+      <c r="X35" s="67"/>
+      <c r="Y35" s="67"/>
       <c r="Z35" s="31"/>
       <c r="AA35" s="32"/>
       <c r="AB35" s="17"/>
@@ -2890,7 +2923,7 @@
       <c r="B36" s="29"/>
       <c r="C36" s="29"/>
       <c r="D36" s="29"/>
-      <c r="E36" s="76"/>
+      <c r="E36" s="84"/>
       <c r="F36" s="47" t="s">
         <v>41</v>
       </c>
@@ -2906,15 +2939,15 @@
       <c r="N36" s="5"/>
       <c r="O36" s="5"/>
       <c r="P36" s="5"/>
-      <c r="Q36" s="5"/>
-      <c r="R36" s="5"/>
+      <c r="Q36" s="58"/>
+      <c r="R36" s="58"/>
       <c r="S36" s="31"/>
       <c r="T36" s="32"/>
-      <c r="U36" s="5"/>
-      <c r="V36" s="5"/>
-      <c r="W36" s="5"/>
-      <c r="X36" s="5"/>
-      <c r="Y36" s="5"/>
+      <c r="U36" s="58"/>
+      <c r="V36" s="58"/>
+      <c r="W36" s="58"/>
+      <c r="X36" s="58"/>
+      <c r="Y36" s="58"/>
       <c r="Z36" s="31"/>
       <c r="AA36" s="32"/>
       <c r="AB36" s="5"/>
@@ -2925,7 +2958,7 @@
       <c r="B37" s="29"/>
       <c r="C37" s="29"/>
       <c r="D37" s="29"/>
-      <c r="E37" s="76"/>
+      <c r="E37" s="84"/>
       <c r="F37" s="47" t="s">
         <v>42</v>
       </c>
@@ -2941,15 +2974,15 @@
       <c r="N37" s="17"/>
       <c r="O37" s="17"/>
       <c r="P37" s="17"/>
-      <c r="Q37" s="17"/>
-      <c r="R37" s="17"/>
+      <c r="Q37" s="67"/>
+      <c r="R37" s="67"/>
       <c r="S37" s="31"/>
       <c r="T37" s="32"/>
-      <c r="U37" s="17"/>
-      <c r="V37" s="17"/>
-      <c r="W37" s="17"/>
-      <c r="X37" s="17"/>
-      <c r="Y37" s="17"/>
+      <c r="U37" s="67"/>
+      <c r="V37" s="67"/>
+      <c r="W37" s="67"/>
+      <c r="X37" s="67"/>
+      <c r="Y37" s="67"/>
       <c r="Z37" s="31"/>
       <c r="AA37" s="32"/>
       <c r="AB37" s="17"/>
@@ -2960,7 +2993,7 @@
       <c r="B38" s="29"/>
       <c r="C38" s="29"/>
       <c r="D38" s="29"/>
-      <c r="E38" s="76"/>
+      <c r="E38" s="84"/>
       <c r="F38" s="47" t="s">
         <v>43</v>
       </c>
@@ -2976,15 +3009,15 @@
       <c r="N38" s="17"/>
       <c r="O38" s="17"/>
       <c r="P38" s="17"/>
-      <c r="Q38" s="17"/>
-      <c r="R38" s="17"/>
+      <c r="Q38" s="67"/>
+      <c r="R38" s="67"/>
       <c r="S38" s="31"/>
       <c r="T38" s="32"/>
-      <c r="U38" s="17"/>
-      <c r="V38" s="17"/>
-      <c r="W38" s="17"/>
-      <c r="X38" s="17"/>
-      <c r="Y38" s="17"/>
+      <c r="U38" s="67"/>
+      <c r="V38" s="67"/>
+      <c r="W38" s="67"/>
+      <c r="X38" s="67"/>
+      <c r="Y38" s="67"/>
       <c r="Z38" s="31"/>
       <c r="AA38" s="32"/>
       <c r="AB38" s="17"/>
@@ -2995,7 +3028,7 @@
       <c r="B39" s="29"/>
       <c r="C39" s="29"/>
       <c r="D39" s="29"/>
-      <c r="E39" s="76"/>
+      <c r="E39" s="84"/>
       <c r="F39" s="47" t="s">
         <v>44</v>
       </c>
@@ -3011,15 +3044,15 @@
       <c r="N39" s="5"/>
       <c r="O39" s="5"/>
       <c r="P39" s="5"/>
-      <c r="Q39" s="5"/>
-      <c r="R39" s="5"/>
+      <c r="Q39" s="58"/>
+      <c r="R39" s="58"/>
       <c r="S39" s="31"/>
       <c r="T39" s="32"/>
-      <c r="U39" s="5"/>
-      <c r="V39" s="5"/>
-      <c r="W39" s="5"/>
-      <c r="X39" s="5"/>
-      <c r="Y39" s="5"/>
+      <c r="U39" s="58"/>
+      <c r="V39" s="58"/>
+      <c r="W39" s="58"/>
+      <c r="X39" s="58"/>
+      <c r="Y39" s="58"/>
       <c r="Z39" s="31"/>
       <c r="AA39" s="32"/>
       <c r="AB39" s="5"/>
@@ -3030,7 +3063,7 @@
       <c r="B40" s="29"/>
       <c r="C40" s="29"/>
       <c r="D40" s="29"/>
-      <c r="E40" s="76"/>
+      <c r="E40" s="84"/>
       <c r="F40" s="47" t="s">
         <v>45</v>
       </c>
@@ -3046,15 +3079,15 @@
       <c r="N40" s="25"/>
       <c r="O40" s="25"/>
       <c r="P40" s="25"/>
-      <c r="Q40" s="25"/>
-      <c r="R40" s="25"/>
+      <c r="Q40" s="57"/>
+      <c r="R40" s="57"/>
       <c r="S40" s="31"/>
       <c r="T40" s="32"/>
-      <c r="U40" s="25"/>
-      <c r="V40" s="25"/>
-      <c r="W40" s="25"/>
-      <c r="X40" s="25"/>
-      <c r="Y40" s="25"/>
+      <c r="U40" s="57"/>
+      <c r="V40" s="57"/>
+      <c r="W40" s="57"/>
+      <c r="X40" s="57"/>
+      <c r="Y40" s="57"/>
       <c r="Z40" s="31"/>
       <c r="AA40" s="32"/>
       <c r="AB40" s="25"/>
@@ -3065,7 +3098,7 @@
       <c r="B41" s="29"/>
       <c r="C41" s="29"/>
       <c r="D41" s="29"/>
-      <c r="E41" s="77"/>
+      <c r="E41" s="85"/>
       <c r="F41" s="48" t="s">
         <v>46</v>
       </c>
@@ -3075,32 +3108,32 @@
       </c>
       <c r="I41" s="13"/>
       <c r="J41" s="24"/>
-      <c r="K41" s="5"/>
-      <c r="L41" s="31"/>
-      <c r="M41" s="32"/>
-      <c r="N41" s="5"/>
-      <c r="O41" s="5"/>
-      <c r="P41" s="5"/>
-      <c r="Q41" s="5"/>
-      <c r="R41" s="5"/>
-      <c r="S41" s="31"/>
-      <c r="T41" s="32"/>
-      <c r="U41" s="5"/>
-      <c r="V41" s="5"/>
-      <c r="W41" s="5"/>
-      <c r="X41" s="5"/>
-      <c r="Y41" s="5"/>
-      <c r="Z41" s="31"/>
-      <c r="AA41" s="32"/>
-      <c r="AB41" s="5"/>
-      <c r="AC41" s="5"/>
-      <c r="AD41" s="9"/>
+      <c r="K41" s="98"/>
+      <c r="L41" s="33"/>
+      <c r="M41" s="34"/>
+      <c r="N41" s="10"/>
+      <c r="O41" s="10"/>
+      <c r="P41" s="10"/>
+      <c r="Q41" s="70"/>
+      <c r="R41" s="70"/>
+      <c r="S41" s="33"/>
+      <c r="T41" s="34"/>
+      <c r="U41" s="70"/>
+      <c r="V41" s="70"/>
+      <c r="W41" s="70"/>
+      <c r="X41" s="70"/>
+      <c r="Y41" s="70"/>
+      <c r="Z41" s="33"/>
+      <c r="AA41" s="34"/>
+      <c r="AB41" s="10"/>
+      <c r="AC41" s="10"/>
+      <c r="AD41" s="11"/>
     </row>
     <row r="42" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B42" s="29"/>
       <c r="C42" s="29"/>
       <c r="D42" s="29"/>
-      <c r="E42" s="78" t="s">
+      <c r="E42" s="86" t="s">
         <v>71</v>
       </c>
       <c r="F42" s="49" t="s">
@@ -3112,32 +3145,32 @@
       </c>
       <c r="I42" s="19"/>
       <c r="J42" s="22"/>
-      <c r="K42" s="5"/>
+      <c r="K42" s="25"/>
       <c r="L42" s="31"/>
       <c r="M42" s="32"/>
-      <c r="N42" s="5"/>
-      <c r="O42" s="5"/>
-      <c r="P42" s="5"/>
-      <c r="Q42" s="5"/>
-      <c r="R42" s="5"/>
+      <c r="N42" s="25"/>
+      <c r="O42" s="25"/>
+      <c r="P42" s="25"/>
+      <c r="Q42" s="57"/>
+      <c r="R42" s="57"/>
       <c r="S42" s="31"/>
       <c r="T42" s="32"/>
-      <c r="U42" s="5"/>
-      <c r="V42" s="5"/>
-      <c r="W42" s="5"/>
-      <c r="X42" s="5"/>
-      <c r="Y42" s="5"/>
+      <c r="U42" s="57"/>
+      <c r="V42" s="57"/>
+      <c r="W42" s="57"/>
+      <c r="X42" s="57"/>
+      <c r="Y42" s="57"/>
       <c r="Z42" s="31"/>
       <c r="AA42" s="32"/>
-      <c r="AB42" s="5"/>
-      <c r="AC42" s="5"/>
-      <c r="AD42" s="9"/>
+      <c r="AB42" s="25"/>
+      <c r="AC42" s="25"/>
+      <c r="AD42" s="26"/>
     </row>
     <row r="43" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B43" s="29"/>
       <c r="C43" s="29"/>
       <c r="D43" s="29"/>
-      <c r="E43" s="79"/>
+      <c r="E43" s="87"/>
       <c r="F43" s="50" t="s">
         <v>48</v>
       </c>
@@ -3153,15 +3186,15 @@
       <c r="N43" s="5"/>
       <c r="O43" s="5"/>
       <c r="P43" s="5"/>
-      <c r="Q43" s="5"/>
-      <c r="R43" s="5"/>
+      <c r="Q43" s="58"/>
+      <c r="R43" s="58"/>
       <c r="S43" s="31"/>
       <c r="T43" s="32"/>
-      <c r="U43" s="5"/>
-      <c r="V43" s="5"/>
-      <c r="W43" s="5"/>
-      <c r="X43" s="5"/>
-      <c r="Y43" s="5"/>
+      <c r="U43" s="58"/>
+      <c r="V43" s="58"/>
+      <c r="W43" s="58"/>
+      <c r="X43" s="58"/>
+      <c r="Y43" s="58"/>
       <c r="Z43" s="31"/>
       <c r="AA43" s="32"/>
       <c r="AB43" s="5"/>
@@ -3172,7 +3205,7 @@
       <c r="B44" s="29"/>
       <c r="C44" s="29"/>
       <c r="D44" s="29"/>
-      <c r="E44" s="79"/>
+      <c r="E44" s="87"/>
       <c r="F44" s="50" t="s">
         <v>49</v>
       </c>
@@ -3188,15 +3221,15 @@
       <c r="N44" s="5"/>
       <c r="O44" s="5"/>
       <c r="P44" s="5"/>
-      <c r="Q44" s="5"/>
-      <c r="R44" s="5"/>
+      <c r="Q44" s="58"/>
+      <c r="R44" s="58"/>
       <c r="S44" s="31"/>
       <c r="T44" s="32"/>
-      <c r="U44" s="5"/>
-      <c r="V44" s="5"/>
-      <c r="W44" s="5"/>
-      <c r="X44" s="5"/>
-      <c r="Y44" s="5"/>
+      <c r="U44" s="58"/>
+      <c r="V44" s="58"/>
+      <c r="W44" s="58"/>
+      <c r="X44" s="58"/>
+      <c r="Y44" s="58"/>
       <c r="Z44" s="31"/>
       <c r="AA44" s="32"/>
       <c r="AB44" s="5"/>
@@ -3207,7 +3240,7 @@
       <c r="B45" s="29"/>
       <c r="C45" s="29"/>
       <c r="D45" s="29"/>
-      <c r="E45" s="79"/>
+      <c r="E45" s="87"/>
       <c r="F45" s="50" t="s">
         <v>50</v>
       </c>
@@ -3223,15 +3256,15 @@
       <c r="N45" s="5"/>
       <c r="O45" s="5"/>
       <c r="P45" s="5"/>
-      <c r="Q45" s="5"/>
-      <c r="R45" s="5"/>
+      <c r="Q45" s="58"/>
+      <c r="R45" s="58"/>
       <c r="S45" s="31"/>
       <c r="T45" s="32"/>
-      <c r="U45" s="5"/>
-      <c r="V45" s="5"/>
-      <c r="W45" s="5"/>
-      <c r="X45" s="5"/>
-      <c r="Y45" s="5"/>
+      <c r="U45" s="58"/>
+      <c r="V45" s="58"/>
+      <c r="W45" s="58"/>
+      <c r="X45" s="58"/>
+      <c r="Y45" s="58"/>
       <c r="Z45" s="31"/>
       <c r="AA45" s="32"/>
       <c r="AB45" s="5"/>
@@ -3242,7 +3275,7 @@
       <c r="B46" s="29"/>
       <c r="C46" s="29"/>
       <c r="D46" s="29"/>
-      <c r="E46" s="79"/>
+      <c r="E46" s="87"/>
       <c r="F46" s="50" t="s">
         <v>51</v>
       </c>
@@ -3258,15 +3291,15 @@
       <c r="N46" s="5"/>
       <c r="O46" s="5"/>
       <c r="P46" s="5"/>
-      <c r="Q46" s="5"/>
-      <c r="R46" s="5"/>
+      <c r="Q46" s="58"/>
+      <c r="R46" s="58"/>
       <c r="S46" s="31"/>
       <c r="T46" s="32"/>
-      <c r="U46" s="5"/>
-      <c r="V46" s="5"/>
-      <c r="W46" s="5"/>
-      <c r="X46" s="5"/>
-      <c r="Y46" s="5"/>
+      <c r="U46" s="58"/>
+      <c r="V46" s="58"/>
+      <c r="W46" s="58"/>
+      <c r="X46" s="58"/>
+      <c r="Y46" s="58"/>
       <c r="Z46" s="31"/>
       <c r="AA46" s="32"/>
       <c r="AB46" s="5"/>
@@ -3277,7 +3310,7 @@
       <c r="B47" s="29"/>
       <c r="C47" s="29"/>
       <c r="D47" s="29"/>
-      <c r="E47" s="79"/>
+      <c r="E47" s="87"/>
       <c r="F47" s="50" t="s">
         <v>52</v>
       </c>
@@ -3293,15 +3326,15 @@
       <c r="N47" s="5"/>
       <c r="O47" s="5"/>
       <c r="P47" s="5"/>
-      <c r="Q47" s="5"/>
-      <c r="R47" s="5"/>
+      <c r="Q47" s="58"/>
+      <c r="R47" s="58"/>
       <c r="S47" s="31"/>
       <c r="T47" s="32"/>
-      <c r="U47" s="5"/>
-      <c r="V47" s="5"/>
-      <c r="W47" s="5"/>
-      <c r="X47" s="5"/>
-      <c r="Y47" s="5"/>
+      <c r="U47" s="58"/>
+      <c r="V47" s="58"/>
+      <c r="W47" s="58"/>
+      <c r="X47" s="58"/>
+      <c r="Y47" s="58"/>
       <c r="Z47" s="31"/>
       <c r="AA47" s="32"/>
       <c r="AB47" s="5"/>
@@ -3312,7 +3345,7 @@
       <c r="B48" s="29"/>
       <c r="C48" s="29"/>
       <c r="D48" s="29"/>
-      <c r="E48" s="79"/>
+      <c r="E48" s="87"/>
       <c r="F48" s="50" t="s">
         <v>53</v>
       </c>
@@ -3328,15 +3361,15 @@
       <c r="N48" s="5"/>
       <c r="O48" s="5"/>
       <c r="P48" s="5"/>
-      <c r="Q48" s="5"/>
-      <c r="R48" s="5"/>
+      <c r="Q48" s="58"/>
+      <c r="R48" s="58"/>
       <c r="S48" s="31"/>
       <c r="T48" s="32"/>
-      <c r="U48" s="5"/>
-      <c r="V48" s="5"/>
-      <c r="W48" s="5"/>
-      <c r="X48" s="5"/>
-      <c r="Y48" s="5"/>
+      <c r="U48" s="58"/>
+      <c r="V48" s="58"/>
+      <c r="W48" s="58"/>
+      <c r="X48" s="58"/>
+      <c r="Y48" s="58"/>
       <c r="Z48" s="31"/>
       <c r="AA48" s="32"/>
       <c r="AB48" s="5"/>
@@ -3347,7 +3380,7 @@
       <c r="B49" s="29"/>
       <c r="C49" s="29"/>
       <c r="D49" s="29"/>
-      <c r="E49" s="79"/>
+      <c r="E49" s="87"/>
       <c r="F49" s="50" t="s">
         <v>54</v>
       </c>
@@ -3363,15 +3396,15 @@
       <c r="N49" s="5"/>
       <c r="O49" s="5"/>
       <c r="P49" s="5"/>
-      <c r="Q49" s="5"/>
-      <c r="R49" s="5"/>
+      <c r="Q49" s="58"/>
+      <c r="R49" s="58"/>
       <c r="S49" s="31"/>
       <c r="T49" s="32"/>
-      <c r="U49" s="5"/>
-      <c r="V49" s="5"/>
-      <c r="W49" s="5"/>
-      <c r="X49" s="5"/>
-      <c r="Y49" s="5"/>
+      <c r="U49" s="58"/>
+      <c r="V49" s="58"/>
+      <c r="W49" s="58"/>
+      <c r="X49" s="58"/>
+      <c r="Y49" s="58"/>
       <c r="Z49" s="31"/>
       <c r="AA49" s="32"/>
       <c r="AB49" s="5"/>
@@ -3382,7 +3415,7 @@
       <c r="B50" s="29"/>
       <c r="C50" s="29"/>
       <c r="D50" s="29"/>
-      <c r="E50" s="79"/>
+      <c r="E50" s="87"/>
       <c r="F50" s="50" t="s">
         <v>55</v>
       </c>
@@ -3398,15 +3431,15 @@
       <c r="N50" s="17"/>
       <c r="O50" s="17"/>
       <c r="P50" s="17"/>
-      <c r="Q50" s="17"/>
-      <c r="R50" s="17"/>
+      <c r="Q50" s="67"/>
+      <c r="R50" s="67"/>
       <c r="S50" s="31"/>
       <c r="T50" s="32"/>
-      <c r="U50" s="17"/>
-      <c r="V50" s="17"/>
-      <c r="W50" s="17"/>
-      <c r="X50" s="17"/>
-      <c r="Y50" s="17"/>
+      <c r="U50" s="67"/>
+      <c r="V50" s="67"/>
+      <c r="W50" s="67"/>
+      <c r="X50" s="67"/>
+      <c r="Y50" s="67"/>
       <c r="Z50" s="31"/>
       <c r="AA50" s="32"/>
       <c r="AB50" s="17"/>
@@ -3417,7 +3450,7 @@
       <c r="B51" s="29"/>
       <c r="C51" s="29"/>
       <c r="D51" s="29"/>
-      <c r="E51" s="79"/>
+      <c r="E51" s="87"/>
       <c r="F51" s="50" t="s">
         <v>56</v>
       </c>
@@ -3433,15 +3466,15 @@
       <c r="N51" s="5"/>
       <c r="O51" s="5"/>
       <c r="P51" s="5"/>
-      <c r="Q51" s="5"/>
-      <c r="R51" s="5"/>
+      <c r="Q51" s="58"/>
+      <c r="R51" s="58"/>
       <c r="S51" s="31"/>
       <c r="T51" s="32"/>
-      <c r="U51" s="5"/>
-      <c r="V51" s="5"/>
-      <c r="W51" s="5"/>
-      <c r="X51" s="5"/>
-      <c r="Y51" s="5"/>
+      <c r="U51" s="58"/>
+      <c r="V51" s="58"/>
+      <c r="W51" s="58"/>
+      <c r="X51" s="58"/>
+      <c r="Y51" s="58"/>
       <c r="Z51" s="31"/>
       <c r="AA51" s="32"/>
       <c r="AB51" s="5"/>
@@ -3452,7 +3485,7 @@
       <c r="B52" s="29"/>
       <c r="C52" s="29"/>
       <c r="D52" s="29"/>
-      <c r="E52" s="80"/>
+      <c r="E52" s="88"/>
       <c r="F52" s="51" t="s">
         <v>57</v>
       </c>
@@ -3462,75 +3495,75 @@
       </c>
       <c r="I52" s="13"/>
       <c r="J52" s="24"/>
-      <c r="K52" s="5"/>
-      <c r="L52" s="31"/>
-      <c r="M52" s="32"/>
-      <c r="N52" s="5"/>
-      <c r="O52" s="5"/>
-      <c r="P52" s="5"/>
-      <c r="Q52" s="5"/>
-      <c r="R52" s="5"/>
-      <c r="S52" s="31"/>
-      <c r="T52" s="32"/>
-      <c r="U52" s="5"/>
-      <c r="V52" s="5"/>
-      <c r="W52" s="5"/>
-      <c r="X52" s="5"/>
-      <c r="Y52" s="5"/>
-      <c r="Z52" s="31"/>
-      <c r="AA52" s="32"/>
-      <c r="AB52" s="5"/>
-      <c r="AC52" s="5"/>
-      <c r="AD52" s="9"/>
+      <c r="K52" s="98"/>
+      <c r="L52" s="33"/>
+      <c r="M52" s="34"/>
+      <c r="N52" s="10"/>
+      <c r="O52" s="10"/>
+      <c r="P52" s="10"/>
+      <c r="Q52" s="70"/>
+      <c r="R52" s="70"/>
+      <c r="S52" s="33"/>
+      <c r="T52" s="34"/>
+      <c r="U52" s="70"/>
+      <c r="V52" s="70"/>
+      <c r="W52" s="70"/>
+      <c r="X52" s="70"/>
+      <c r="Y52" s="70"/>
+      <c r="Z52" s="33"/>
+      <c r="AA52" s="34"/>
+      <c r="AB52" s="10"/>
+      <c r="AC52" s="10"/>
+      <c r="AD52" s="11"/>
     </row>
     <row r="53" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B53" s="29"/>
       <c r="C53" s="29"/>
       <c r="D53" s="29"/>
-      <c r="E53" s="81" t="s">
+      <c r="E53" s="89" t="s">
         <v>72</v>
       </c>
       <c r="F53" s="52" t="s">
         <v>58</v>
       </c>
       <c r="G53" s="20"/>
-      <c r="H53" s="90">
-        <v>44726</v>
+      <c r="H53" s="55">
+        <v>44728</v>
       </c>
       <c r="I53" s="19"/>
       <c r="J53" s="22"/>
-      <c r="K53" s="5"/>
+      <c r="K53" s="25"/>
       <c r="L53" s="31"/>
       <c r="M53" s="32"/>
-      <c r="N53" s="5"/>
-      <c r="O53" s="5"/>
-      <c r="P53" s="5"/>
-      <c r="Q53" s="5"/>
-      <c r="R53" s="5"/>
+      <c r="N53" s="25"/>
+      <c r="O53" s="25"/>
+      <c r="P53" s="25"/>
+      <c r="Q53" s="57"/>
+      <c r="R53" s="57"/>
       <c r="S53" s="31"/>
       <c r="T53" s="32"/>
-      <c r="U53" s="5"/>
-      <c r="V53" s="5"/>
-      <c r="W53" s="5"/>
-      <c r="X53" s="5"/>
-      <c r="Y53" s="5"/>
+      <c r="U53" s="57"/>
+      <c r="V53" s="57"/>
+      <c r="W53" s="57"/>
+      <c r="X53" s="57"/>
+      <c r="Y53" s="57"/>
       <c r="Z53" s="31"/>
       <c r="AA53" s="32"/>
-      <c r="AB53" s="5"/>
-      <c r="AC53" s="5"/>
-      <c r="AD53" s="9"/>
+      <c r="AB53" s="25"/>
+      <c r="AC53" s="25"/>
+      <c r="AD53" s="26"/>
     </row>
     <row r="54" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B54" s="29"/>
       <c r="C54" s="29"/>
       <c r="D54" s="29"/>
-      <c r="E54" s="82"/>
+      <c r="E54" s="90"/>
       <c r="F54" s="53" t="s">
         <v>59</v>
       </c>
       <c r="G54" s="14"/>
-      <c r="H54" s="55">
-        <v>44726</v>
+      <c r="H54" s="56">
+        <v>44728</v>
       </c>
       <c r="I54" s="12"/>
       <c r="J54" s="23"/>
@@ -3540,15 +3573,15 @@
       <c r="N54" s="5"/>
       <c r="O54" s="5"/>
       <c r="P54" s="5"/>
-      <c r="Q54" s="5"/>
-      <c r="R54" s="5"/>
+      <c r="Q54" s="58"/>
+      <c r="R54" s="58"/>
       <c r="S54" s="31"/>
       <c r="T54" s="32"/>
-      <c r="U54" s="5"/>
-      <c r="V54" s="5"/>
-      <c r="W54" s="5"/>
-      <c r="X54" s="5"/>
-      <c r="Y54" s="5"/>
+      <c r="U54" s="58"/>
+      <c r="V54" s="58"/>
+      <c r="W54" s="58"/>
+      <c r="X54" s="58"/>
+      <c r="Y54" s="58"/>
       <c r="Z54" s="31"/>
       <c r="AA54" s="32"/>
       <c r="AB54" s="5"/>
@@ -3559,13 +3592,13 @@
       <c r="B55" s="29"/>
       <c r="C55" s="29"/>
       <c r="D55" s="29"/>
-      <c r="E55" s="82"/>
+      <c r="E55" s="90"/>
       <c r="F55" s="53" t="s">
         <v>60</v>
       </c>
       <c r="G55" s="14"/>
-      <c r="H55" s="90">
-        <v>44726</v>
+      <c r="H55" s="55">
+        <v>44728</v>
       </c>
       <c r="I55" s="12"/>
       <c r="J55" s="23"/>
@@ -3575,15 +3608,15 @@
       <c r="N55" s="5"/>
       <c r="O55" s="5"/>
       <c r="P55" s="5"/>
-      <c r="Q55" s="5"/>
-      <c r="R55" s="5"/>
+      <c r="Q55" s="58"/>
+      <c r="R55" s="58"/>
       <c r="S55" s="31"/>
       <c r="T55" s="32"/>
-      <c r="U55" s="5"/>
-      <c r="V55" s="5"/>
-      <c r="W55" s="5"/>
-      <c r="X55" s="5"/>
-      <c r="Y55" s="5"/>
+      <c r="U55" s="58"/>
+      <c r="V55" s="58"/>
+      <c r="W55" s="58"/>
+      <c r="X55" s="58"/>
+      <c r="Y55" s="58"/>
       <c r="Z55" s="31"/>
       <c r="AA55" s="32"/>
       <c r="AB55" s="5"/>
@@ -3594,13 +3627,13 @@
       <c r="B56" s="29"/>
       <c r="C56" s="29"/>
       <c r="D56" s="29"/>
-      <c r="E56" s="82"/>
+      <c r="E56" s="90"/>
       <c r="F56" s="53" t="s">
         <v>61</v>
       </c>
       <c r="G56" s="21"/>
-      <c r="H56" s="55">
-        <v>44726</v>
+      <c r="H56" s="56">
+        <v>44728</v>
       </c>
       <c r="I56" s="16"/>
       <c r="J56" s="35"/>
@@ -3610,15 +3643,15 @@
       <c r="N56" s="17"/>
       <c r="O56" s="17"/>
       <c r="P56" s="17"/>
-      <c r="Q56" s="17"/>
-      <c r="R56" s="17"/>
+      <c r="Q56" s="67"/>
+      <c r="R56" s="67"/>
       <c r="S56" s="31"/>
       <c r="T56" s="32"/>
-      <c r="U56" s="17"/>
-      <c r="V56" s="17"/>
-      <c r="W56" s="17"/>
-      <c r="X56" s="17"/>
-      <c r="Y56" s="17"/>
+      <c r="U56" s="67"/>
+      <c r="V56" s="67"/>
+      <c r="W56" s="67"/>
+      <c r="X56" s="67"/>
+      <c r="Y56" s="67"/>
       <c r="Z56" s="31"/>
       <c r="AA56" s="32"/>
       <c r="AB56" s="17"/>
@@ -3629,13 +3662,13 @@
       <c r="B57" s="29"/>
       <c r="C57" s="29"/>
       <c r="D57" s="29"/>
-      <c r="E57" s="82"/>
+      <c r="E57" s="90"/>
       <c r="F57" s="53" t="s">
         <v>62</v>
       </c>
       <c r="G57" s="14"/>
-      <c r="H57" s="90">
-        <v>44726</v>
+      <c r="H57" s="55">
+        <v>44728</v>
       </c>
       <c r="I57" s="12"/>
       <c r="J57" s="23"/>
@@ -3645,15 +3678,15 @@
       <c r="N57" s="5"/>
       <c r="O57" s="5"/>
       <c r="P57" s="5"/>
-      <c r="Q57" s="5"/>
-      <c r="R57" s="5"/>
+      <c r="Q57" s="58"/>
+      <c r="R57" s="58"/>
       <c r="S57" s="31"/>
       <c r="T57" s="32"/>
-      <c r="U57" s="5"/>
-      <c r="V57" s="5"/>
-      <c r="W57" s="5"/>
-      <c r="X57" s="5"/>
-      <c r="Y57" s="5"/>
+      <c r="U57" s="58"/>
+      <c r="V57" s="58"/>
+      <c r="W57" s="58"/>
+      <c r="X57" s="58"/>
+      <c r="Y57" s="58"/>
       <c r="Z57" s="31"/>
       <c r="AA57" s="32"/>
       <c r="AB57" s="5"/>
@@ -3664,13 +3697,13 @@
       <c r="B58" s="29"/>
       <c r="C58" s="29"/>
       <c r="D58" s="29"/>
-      <c r="E58" s="82"/>
+      <c r="E58" s="90"/>
       <c r="F58" s="53" t="s">
         <v>63</v>
       </c>
       <c r="G58" s="14"/>
-      <c r="H58" s="55">
-        <v>44726</v>
+      <c r="H58" s="56">
+        <v>44728</v>
       </c>
       <c r="I58" s="12"/>
       <c r="J58" s="23"/>
@@ -3680,15 +3713,15 @@
       <c r="N58" s="5"/>
       <c r="O58" s="5"/>
       <c r="P58" s="5"/>
-      <c r="Q58" s="5"/>
-      <c r="R58" s="5"/>
+      <c r="Q58" s="58"/>
+      <c r="R58" s="58"/>
       <c r="S58" s="31"/>
       <c r="T58" s="32"/>
-      <c r="U58" s="5"/>
-      <c r="V58" s="5"/>
-      <c r="W58" s="5"/>
-      <c r="X58" s="5"/>
-      <c r="Y58" s="5"/>
+      <c r="U58" s="58"/>
+      <c r="V58" s="58"/>
+      <c r="W58" s="58"/>
+      <c r="X58" s="58"/>
+      <c r="Y58" s="58"/>
       <c r="Z58" s="31"/>
       <c r="AA58" s="32"/>
       <c r="AB58" s="5"/>
@@ -3699,13 +3732,13 @@
       <c r="B59" s="29"/>
       <c r="C59" s="29"/>
       <c r="D59" s="29"/>
-      <c r="E59" s="82"/>
+      <c r="E59" s="90"/>
       <c r="F59" s="53" t="s">
         <v>64</v>
       </c>
       <c r="G59" s="14"/>
-      <c r="H59" s="90">
-        <v>44726</v>
+      <c r="H59" s="55">
+        <v>44728</v>
       </c>
       <c r="I59" s="12"/>
       <c r="J59" s="23"/>
@@ -3715,15 +3748,15 @@
       <c r="N59" s="5"/>
       <c r="O59" s="5"/>
       <c r="P59" s="5"/>
-      <c r="Q59" s="5"/>
-      <c r="R59" s="5"/>
+      <c r="Q59" s="58"/>
+      <c r="R59" s="58"/>
       <c r="S59" s="31"/>
       <c r="T59" s="32"/>
-      <c r="U59" s="5"/>
-      <c r="V59" s="5"/>
-      <c r="W59" s="5"/>
-      <c r="X59" s="5"/>
-      <c r="Y59" s="5"/>
+      <c r="U59" s="58"/>
+      <c r="V59" s="58"/>
+      <c r="W59" s="58"/>
+      <c r="X59" s="58"/>
+      <c r="Y59" s="58"/>
       <c r="Z59" s="31"/>
       <c r="AA59" s="32"/>
       <c r="AB59" s="5"/>
@@ -3734,13 +3767,13 @@
       <c r="B60" s="29"/>
       <c r="C60" s="29"/>
       <c r="D60" s="29"/>
-      <c r="E60" s="82"/>
+      <c r="E60" s="90"/>
       <c r="F60" s="53" t="s">
         <v>65</v>
       </c>
       <c r="G60" s="14"/>
-      <c r="H60" s="55">
-        <v>44726</v>
+      <c r="H60" s="56">
+        <v>44728</v>
       </c>
       <c r="I60" s="12"/>
       <c r="J60" s="23"/>
@@ -3750,15 +3783,15 @@
       <c r="N60" s="5"/>
       <c r="O60" s="5"/>
       <c r="P60" s="5"/>
-      <c r="Q60" s="5"/>
-      <c r="R60" s="5"/>
+      <c r="Q60" s="58"/>
+      <c r="R60" s="58"/>
       <c r="S60" s="31"/>
       <c r="T60" s="32"/>
-      <c r="U60" s="5"/>
-      <c r="V60" s="5"/>
-      <c r="W60" s="5"/>
-      <c r="X60" s="5"/>
-      <c r="Y60" s="5"/>
+      <c r="U60" s="58"/>
+      <c r="V60" s="58"/>
+      <c r="W60" s="58"/>
+      <c r="X60" s="58"/>
+      <c r="Y60" s="58"/>
       <c r="Z60" s="31"/>
       <c r="AA60" s="32"/>
       <c r="AB60" s="5"/>
@@ -3769,13 +3802,13 @@
       <c r="B61" s="29"/>
       <c r="C61" s="29"/>
       <c r="D61" s="29"/>
-      <c r="E61" s="82"/>
+      <c r="E61" s="90"/>
       <c r="F61" s="53" t="s">
         <v>66</v>
       </c>
       <c r="G61" s="14"/>
-      <c r="H61" s="90">
-        <v>44726</v>
+      <c r="H61" s="55">
+        <v>44728</v>
       </c>
       <c r="I61" s="12"/>
       <c r="J61" s="23"/>
@@ -3785,15 +3818,15 @@
       <c r="N61" s="5"/>
       <c r="O61" s="5"/>
       <c r="P61" s="5"/>
-      <c r="Q61" s="5"/>
-      <c r="R61" s="5"/>
+      <c r="Q61" s="58"/>
+      <c r="R61" s="58"/>
       <c r="S61" s="31"/>
       <c r="T61" s="32"/>
-      <c r="U61" s="5"/>
-      <c r="V61" s="5"/>
-      <c r="W61" s="5"/>
-      <c r="X61" s="5"/>
-      <c r="Y61" s="5"/>
+      <c r="U61" s="58"/>
+      <c r="V61" s="58"/>
+      <c r="W61" s="58"/>
+      <c r="X61" s="58"/>
+      <c r="Y61" s="58"/>
       <c r="Z61" s="31"/>
       <c r="AA61" s="32"/>
       <c r="AB61" s="5"/>
@@ -3804,13 +3837,13 @@
       <c r="B62" s="29"/>
       <c r="C62" s="29"/>
       <c r="D62" s="29"/>
-      <c r="E62" s="82"/>
+      <c r="E62" s="90"/>
       <c r="F62" s="53" t="s">
         <v>67</v>
       </c>
       <c r="G62" s="21"/>
-      <c r="H62" s="55">
-        <v>44726</v>
+      <c r="H62" s="56">
+        <v>44728</v>
       </c>
       <c r="I62" s="16"/>
       <c r="J62" s="35"/>
@@ -3820,15 +3853,15 @@
       <c r="N62" s="17"/>
       <c r="O62" s="17"/>
       <c r="P62" s="17"/>
-      <c r="Q62" s="17"/>
-      <c r="R62" s="17"/>
+      <c r="Q62" s="67"/>
+      <c r="R62" s="67"/>
       <c r="S62" s="31"/>
       <c r="T62" s="32"/>
-      <c r="U62" s="17"/>
-      <c r="V62" s="17"/>
-      <c r="W62" s="17"/>
-      <c r="X62" s="17"/>
-      <c r="Y62" s="17"/>
+      <c r="U62" s="67"/>
+      <c r="V62" s="67"/>
+      <c r="W62" s="67"/>
+      <c r="X62" s="67"/>
+      <c r="Y62" s="67"/>
       <c r="Z62" s="31"/>
       <c r="AA62" s="32"/>
       <c r="AB62" s="17"/>
@@ -3839,13 +3872,13 @@
       <c r="B63" s="30"/>
       <c r="C63" s="30"/>
       <c r="D63" s="30"/>
-      <c r="E63" s="83"/>
+      <c r="E63" s="91"/>
       <c r="F63" s="54" t="s">
         <v>68</v>
       </c>
       <c r="G63" s="15"/>
       <c r="H63" s="59">
-        <v>44726</v>
+        <v>44728</v>
       </c>
       <c r="I63" s="13"/>
       <c r="J63" s="24"/>
@@ -3855,15 +3888,15 @@
       <c r="N63" s="10"/>
       <c r="O63" s="10"/>
       <c r="P63" s="10"/>
-      <c r="Q63" s="10"/>
-      <c r="R63" s="10"/>
+      <c r="Q63" s="70"/>
+      <c r="R63" s="70"/>
       <c r="S63" s="33"/>
       <c r="T63" s="34"/>
-      <c r="U63" s="10"/>
-      <c r="V63" s="10"/>
-      <c r="W63" s="10"/>
-      <c r="X63" s="10"/>
-      <c r="Y63" s="10"/>
+      <c r="U63" s="70"/>
+      <c r="V63" s="70"/>
+      <c r="W63" s="70"/>
+      <c r="X63" s="70"/>
+      <c r="Y63" s="70"/>
       <c r="Z63" s="33"/>
       <c r="AA63" s="34"/>
       <c r="AB63" s="10"/>

--- a/doc/議事録/6月スケジュール・進捗.xlsx
+++ b/doc/議事録/6月スケジュール・進捗.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\議事録\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03C6E002-C882-43D0-8135-48B81DC36343}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{674814AC-68FB-4F71-AE65-AC1750F5ED48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EF38ED0C-2E44-4635-8BF2-3FB90485B04B}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="78">
   <si>
     <t>GE★RA　スケジュール表</t>
     <rPh sb="12" eb="13">
@@ -404,7 +404,7 @@
     <numFmt numFmtId="177" formatCode="aaa"/>
     <numFmt numFmtId="178" formatCode="m"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -423,6 +423,14 @@
     <font>
       <sz val="11"/>
       <color theme="2" tint="-9.9978637043366805E-2"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
@@ -963,7 +971,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1177,6 +1185,42 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1186,6 +1230,24 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1207,58 +1269,16 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1585,8 +1605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E4E062F-53B0-43EA-8BD7-13462A9EF8FE}">
   <dimension ref="A1:AD63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1631,31 +1651,31 @@
     </row>
     <row r="4" spans="1:30" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="5" spans="1:30" x14ac:dyDescent="0.4">
-      <c r="B5" s="71" t="s">
+      <c r="B5" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="71" t="s">
+      <c r="C5" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="77" t="s">
+      <c r="D5" s="95" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="71" t="s">
+      <c r="E5" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="71" t="s">
+      <c r="F5" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="71" t="s">
+      <c r="G5" s="83" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="71" t="s">
+      <c r="H5" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="71" t="s">
+      <c r="I5" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="74" t="s">
+      <c r="J5" s="92" t="s">
         <v>10</v>
       </c>
       <c r="K5" s="6">
@@ -1720,15 +1740,15 @@
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.4">
-      <c r="B6" s="72"/>
-      <c r="C6" s="72"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72"/>
-      <c r="G6" s="72"/>
-      <c r="H6" s="72"/>
-      <c r="I6" s="72"/>
-      <c r="J6" s="75"/>
+      <c r="B6" s="84"/>
+      <c r="C6" s="84"/>
+      <c r="D6" s="96"/>
+      <c r="E6" s="84"/>
+      <c r="F6" s="84"/>
+      <c r="G6" s="84"/>
+      <c r="H6" s="84"/>
+      <c r="I6" s="84"/>
+      <c r="J6" s="93"/>
       <c r="K6" s="4">
         <v>44722</v>
       </c>
@@ -1791,15 +1811,15 @@
       </c>
     </row>
     <row r="7" spans="1:30" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="73"/>
-      <c r="C7" s="73"/>
-      <c r="D7" s="79"/>
-      <c r="E7" s="80"/>
-      <c r="F7" s="73"/>
-      <c r="G7" s="73"/>
-      <c r="H7" s="73"/>
-      <c r="I7" s="73"/>
-      <c r="J7" s="76"/>
+      <c r="B7" s="85"/>
+      <c r="C7" s="85"/>
+      <c r="D7" s="97"/>
+      <c r="E7" s="98"/>
+      <c r="F7" s="85"/>
+      <c r="G7" s="85"/>
+      <c r="H7" s="85"/>
+      <c r="I7" s="85"/>
+      <c r="J7" s="94"/>
       <c r="K7" s="27">
         <v>44722</v>
       </c>
@@ -1871,7 +1891,7 @@
       <c r="D8" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="E8" s="92" t="s">
+      <c r="E8" s="86" t="s">
         <v>21</v>
       </c>
       <c r="F8" s="37" t="s">
@@ -1892,7 +1912,7 @@
       <c r="M8" s="32"/>
       <c r="N8" s="57"/>
       <c r="O8" s="57"/>
-      <c r="P8" s="57"/>
+      <c r="P8" s="100"/>
       <c r="Q8" s="25"/>
       <c r="R8" s="25"/>
       <c r="S8" s="31"/>
@@ -1912,7 +1932,7 @@
       <c r="B9" s="29"/>
       <c r="C9" s="29"/>
       <c r="D9" s="29"/>
-      <c r="E9" s="93"/>
+      <c r="E9" s="87"/>
       <c r="F9" s="38" t="s">
         <v>12</v>
       </c>
@@ -1931,7 +1951,7 @@
       <c r="M9" s="32"/>
       <c r="N9" s="58"/>
       <c r="O9" s="58"/>
-      <c r="P9" s="58"/>
+      <c r="P9" s="101"/>
       <c r="Q9" s="5"/>
       <c r="R9" s="5"/>
       <c r="S9" s="31"/>
@@ -1951,7 +1971,7 @@
       <c r="B10" s="29"/>
       <c r="C10" s="29"/>
       <c r="D10" s="29"/>
-      <c r="E10" s="93"/>
+      <c r="E10" s="87"/>
       <c r="F10" s="38" t="s">
         <v>13</v>
       </c>
@@ -1968,7 +1988,7 @@
       <c r="M10" s="32"/>
       <c r="N10" s="58"/>
       <c r="O10" s="58"/>
-      <c r="P10" s="58"/>
+      <c r="P10" s="101"/>
       <c r="Q10" s="5"/>
       <c r="R10" s="5"/>
       <c r="S10" s="31"/>
@@ -1988,7 +2008,7 @@
       <c r="B11" s="29"/>
       <c r="C11" s="29"/>
       <c r="D11" s="29"/>
-      <c r="E11" s="93"/>
+      <c r="E11" s="87"/>
       <c r="F11" s="38" t="s">
         <v>14</v>
       </c>
@@ -2005,7 +2025,7 @@
       <c r="M11" s="32"/>
       <c r="N11" s="58"/>
       <c r="O11" s="58"/>
-      <c r="P11" s="58"/>
+      <c r="P11" s="101"/>
       <c r="Q11" s="5"/>
       <c r="R11" s="5"/>
       <c r="S11" s="31"/>
@@ -2025,7 +2045,7 @@
       <c r="B12" s="29"/>
       <c r="C12" s="29"/>
       <c r="D12" s="29"/>
-      <c r="E12" s="93"/>
+      <c r="E12" s="87"/>
       <c r="F12" s="38" t="s">
         <v>15</v>
       </c>
@@ -2042,7 +2062,7 @@
       <c r="M12" s="32"/>
       <c r="N12" s="58"/>
       <c r="O12" s="58"/>
-      <c r="P12" s="58"/>
+      <c r="P12" s="101"/>
       <c r="Q12" s="5"/>
       <c r="R12" s="5"/>
       <c r="S12" s="31"/>
@@ -2062,7 +2082,7 @@
       <c r="B13" s="29"/>
       <c r="C13" s="29"/>
       <c r="D13" s="29"/>
-      <c r="E13" s="93"/>
+      <c r="E13" s="87"/>
       <c r="F13" s="38" t="s">
         <v>16</v>
       </c>
@@ -2079,7 +2099,7 @@
       <c r="M13" s="32"/>
       <c r="N13" s="58"/>
       <c r="O13" s="58"/>
-      <c r="P13" s="58"/>
+      <c r="P13" s="101"/>
       <c r="Q13" s="5"/>
       <c r="R13" s="5"/>
       <c r="S13" s="31"/>
@@ -2099,7 +2119,7 @@
       <c r="B14" s="29"/>
       <c r="C14" s="29"/>
       <c r="D14" s="29"/>
-      <c r="E14" s="93"/>
+      <c r="E14" s="87"/>
       <c r="F14" s="38" t="s">
         <v>17</v>
       </c>
@@ -2116,7 +2136,7 @@
       <c r="M14" s="32"/>
       <c r="N14" s="58"/>
       <c r="O14" s="58"/>
-      <c r="P14" s="58"/>
+      <c r="P14" s="101"/>
       <c r="Q14" s="5"/>
       <c r="R14" s="5"/>
       <c r="S14" s="31"/>
@@ -2136,7 +2156,7 @@
       <c r="B15" s="29"/>
       <c r="C15" s="29"/>
       <c r="D15" s="29"/>
-      <c r="E15" s="93"/>
+      <c r="E15" s="87"/>
       <c r="F15" s="38" t="s">
         <v>18</v>
       </c>
@@ -2153,7 +2173,7 @@
       <c r="M15" s="32"/>
       <c r="N15" s="58"/>
       <c r="O15" s="58"/>
-      <c r="P15" s="58"/>
+      <c r="P15" s="101"/>
       <c r="Q15" s="5"/>
       <c r="R15" s="5"/>
       <c r="S15" s="31"/>
@@ -2173,7 +2193,7 @@
       <c r="B16" s="29"/>
       <c r="C16" s="29"/>
       <c r="D16" s="29"/>
-      <c r="E16" s="93"/>
+      <c r="E16" s="87"/>
       <c r="F16" s="38" t="s">
         <v>19</v>
       </c>
@@ -2192,7 +2212,7 @@
       <c r="M16" s="32"/>
       <c r="N16" s="58"/>
       <c r="O16" s="58"/>
-      <c r="P16" s="58"/>
+      <c r="P16" s="101"/>
       <c r="Q16" s="5"/>
       <c r="R16" s="5"/>
       <c r="S16" s="31"/>
@@ -2212,7 +2232,7 @@
       <c r="B17" s="29"/>
       <c r="C17" s="29"/>
       <c r="D17" s="29"/>
-      <c r="E17" s="94"/>
+      <c r="E17" s="88"/>
       <c r="F17" s="39" t="s">
         <v>20</v>
       </c>
@@ -2227,22 +2247,22 @@
         <v>0.7</v>
       </c>
       <c r="K17" s="45"/>
-      <c r="L17" s="33"/>
-      <c r="M17" s="34"/>
+      <c r="L17" s="31"/>
+      <c r="M17" s="32"/>
       <c r="N17" s="70"/>
       <c r="O17" s="70"/>
-      <c r="P17" s="70"/>
+      <c r="P17" s="102"/>
       <c r="Q17" s="10"/>
       <c r="R17" s="10"/>
-      <c r="S17" s="33"/>
-      <c r="T17" s="34"/>
+      <c r="S17" s="31"/>
+      <c r="T17" s="32"/>
       <c r="U17" s="10"/>
       <c r="V17" s="10"/>
       <c r="W17" s="10"/>
       <c r="X17" s="10"/>
       <c r="Y17" s="10"/>
-      <c r="Z17" s="33"/>
-      <c r="AA17" s="34"/>
+      <c r="Z17" s="31"/>
+      <c r="AA17" s="32"/>
       <c r="AB17" s="10"/>
       <c r="AC17" s="10"/>
       <c r="AD17" s="11"/>
@@ -2251,15 +2271,17 @@
       <c r="B18" s="29"/>
       <c r="C18" s="29"/>
       <c r="D18" s="29"/>
-      <c r="E18" s="95" t="s">
+      <c r="E18" s="89" t="s">
         <v>25</v>
       </c>
       <c r="F18" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="G18" s="20"/>
+      <c r="G18" s="99" t="s">
+        <v>75</v>
+      </c>
       <c r="H18" s="55">
-        <v>44728</v>
+        <v>44727</v>
       </c>
       <c r="I18" s="19"/>
       <c r="J18" s="22"/>
@@ -2268,7 +2290,7 @@
       <c r="M18" s="32"/>
       <c r="N18" s="25"/>
       <c r="O18" s="25"/>
-      <c r="P18" s="25"/>
+      <c r="P18" s="57"/>
       <c r="Q18" s="57"/>
       <c r="R18" s="57"/>
       <c r="S18" s="31"/>
@@ -2288,13 +2310,15 @@
       <c r="B19" s="29"/>
       <c r="C19" s="29"/>
       <c r="D19" s="29"/>
-      <c r="E19" s="96"/>
+      <c r="E19" s="90"/>
       <c r="F19" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="G19" s="14"/>
+      <c r="G19" s="14" t="s">
+        <v>76</v>
+      </c>
       <c r="H19" s="56">
-        <v>44728</v>
+        <v>44727</v>
       </c>
       <c r="I19" s="12"/>
       <c r="J19" s="23"/>
@@ -2303,7 +2327,7 @@
       <c r="M19" s="32"/>
       <c r="N19" s="5"/>
       <c r="O19" s="5"/>
-      <c r="P19" s="5"/>
+      <c r="P19" s="58"/>
       <c r="Q19" s="58"/>
       <c r="R19" s="58"/>
       <c r="S19" s="31"/>
@@ -2323,33 +2347,35 @@
       <c r="B20" s="29"/>
       <c r="C20" s="29"/>
       <c r="D20" s="29"/>
-      <c r="E20" s="97"/>
+      <c r="E20" s="91"/>
       <c r="F20" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="G20" s="15"/>
+      <c r="G20" s="13" t="s">
+        <v>77</v>
+      </c>
       <c r="H20" s="66">
-        <v>44728</v>
+        <v>44727</v>
       </c>
       <c r="I20" s="13"/>
       <c r="J20" s="24"/>
-      <c r="K20" s="98"/>
-      <c r="L20" s="33"/>
-      <c r="M20" s="34"/>
+      <c r="K20" s="71"/>
+      <c r="L20" s="31"/>
+      <c r="M20" s="32"/>
       <c r="N20" s="10"/>
       <c r="O20" s="10"/>
-      <c r="P20" s="10"/>
+      <c r="P20" s="70"/>
       <c r="Q20" s="70"/>
       <c r="R20" s="70"/>
-      <c r="S20" s="33"/>
-      <c r="T20" s="34"/>
+      <c r="S20" s="31"/>
+      <c r="T20" s="32"/>
       <c r="U20" s="70"/>
       <c r="V20" s="70"/>
       <c r="W20" s="70"/>
       <c r="X20" s="70"/>
       <c r="Y20" s="70"/>
-      <c r="Z20" s="33"/>
-      <c r="AA20" s="34"/>
+      <c r="Z20" s="31"/>
+      <c r="AA20" s="32"/>
       <c r="AB20" s="10"/>
       <c r="AC20" s="10"/>
       <c r="AD20" s="11"/>
@@ -2358,13 +2384,15 @@
       <c r="B21" s="29"/>
       <c r="C21" s="29"/>
       <c r="D21" s="29"/>
-      <c r="E21" s="81" t="s">
+      <c r="E21" s="72" t="s">
         <v>69</v>
       </c>
       <c r="F21" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="G21" s="20"/>
+      <c r="G21" s="99" t="s">
+        <v>75</v>
+      </c>
       <c r="H21" s="55">
         <v>44725</v>
       </c>
@@ -2399,11 +2427,13 @@
       <c r="B22" s="29"/>
       <c r="C22" s="29"/>
       <c r="D22" s="29"/>
-      <c r="E22" s="81"/>
+      <c r="E22" s="72"/>
       <c r="F22" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="G22" s="21"/>
+      <c r="G22" s="20" t="s">
+        <v>75</v>
+      </c>
       <c r="H22" s="55">
         <v>44725</v>
       </c>
@@ -2438,11 +2468,13 @@
       <c r="B23" s="29"/>
       <c r="C23" s="29"/>
       <c r="D23" s="29"/>
-      <c r="E23" s="81"/>
+      <c r="E23" s="72"/>
       <c r="F23" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="G23" s="21"/>
+      <c r="G23" s="20" t="s">
+        <v>75</v>
+      </c>
       <c r="H23" s="55">
         <v>44725</v>
       </c>
@@ -2477,11 +2509,13 @@
       <c r="B24" s="29"/>
       <c r="C24" s="29"/>
       <c r="D24" s="29"/>
-      <c r="E24" s="81"/>
+      <c r="E24" s="72"/>
       <c r="F24" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="G24" s="14"/>
+      <c r="G24" s="14" t="s">
+        <v>76</v>
+      </c>
       <c r="H24" s="55">
         <v>44725</v>
       </c>
@@ -2516,11 +2550,13 @@
       <c r="B25" s="29"/>
       <c r="C25" s="29"/>
       <c r="D25" s="29"/>
-      <c r="E25" s="81"/>
+      <c r="E25" s="72"/>
       <c r="F25" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="G25" s="20"/>
+      <c r="G25" s="14" t="s">
+        <v>77</v>
+      </c>
       <c r="H25" s="55">
         <v>44725</v>
       </c>
@@ -2555,11 +2591,13 @@
       <c r="B26" s="29"/>
       <c r="C26" s="29"/>
       <c r="D26" s="29"/>
-      <c r="E26" s="81"/>
+      <c r="E26" s="72"/>
       <c r="F26" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="G26" s="14"/>
+      <c r="G26" s="14" t="s">
+        <v>77</v>
+      </c>
       <c r="H26" s="55">
         <v>44725</v>
       </c>
@@ -2594,11 +2632,13 @@
       <c r="B27" s="29"/>
       <c r="C27" s="29"/>
       <c r="D27" s="29"/>
-      <c r="E27" s="81"/>
+      <c r="E27" s="72"/>
       <c r="F27" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="G27" s="14"/>
+      <c r="G27" s="14" t="s">
+        <v>76</v>
+      </c>
       <c r="H27" s="55">
         <v>44725</v>
       </c>
@@ -2633,11 +2673,13 @@
       <c r="B28" s="29"/>
       <c r="C28" s="29"/>
       <c r="D28" s="29"/>
-      <c r="E28" s="81"/>
+      <c r="E28" s="72"/>
       <c r="F28" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="G28" s="14"/>
+      <c r="G28" s="14" t="s">
+        <v>76</v>
+      </c>
       <c r="H28" s="55">
         <v>44725</v>
       </c>
@@ -2672,11 +2714,13 @@
       <c r="B29" s="29"/>
       <c r="C29" s="29"/>
       <c r="D29" s="29"/>
-      <c r="E29" s="82"/>
+      <c r="E29" s="73"/>
       <c r="F29" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="G29" s="15"/>
+      <c r="G29" s="13" t="s">
+        <v>76</v>
+      </c>
       <c r="H29" s="59">
         <v>44725</v>
       </c>
@@ -2686,7 +2730,7 @@
       <c r="J29" s="69">
         <v>1</v>
       </c>
-      <c r="K29" s="98"/>
+      <c r="K29" s="71"/>
       <c r="L29" s="33"/>
       <c r="M29" s="34"/>
       <c r="N29" s="70"/>
@@ -2711,7 +2755,7 @@
       <c r="B30" s="29"/>
       <c r="C30" s="29"/>
       <c r="D30" s="29"/>
-      <c r="E30" s="83" t="s">
+      <c r="E30" s="74" t="s">
         <v>70</v>
       </c>
       <c r="F30" s="46" t="s">
@@ -2748,7 +2792,7 @@
       <c r="B31" s="29"/>
       <c r="C31" s="29"/>
       <c r="D31" s="29"/>
-      <c r="E31" s="84"/>
+      <c r="E31" s="75"/>
       <c r="F31" s="47" t="s">
         <v>36</v>
       </c>
@@ -2783,7 +2827,7 @@
       <c r="B32" s="29"/>
       <c r="C32" s="29"/>
       <c r="D32" s="29"/>
-      <c r="E32" s="84"/>
+      <c r="E32" s="75"/>
       <c r="F32" s="47" t="s">
         <v>37</v>
       </c>
@@ -2818,7 +2862,7 @@
       <c r="B33" s="29"/>
       <c r="C33" s="29"/>
       <c r="D33" s="29"/>
-      <c r="E33" s="84"/>
+      <c r="E33" s="75"/>
       <c r="F33" s="47" t="s">
         <v>38</v>
       </c>
@@ -2853,7 +2897,7 @@
       <c r="B34" s="29"/>
       <c r="C34" s="29"/>
       <c r="D34" s="29"/>
-      <c r="E34" s="84"/>
+      <c r="E34" s="75"/>
       <c r="F34" s="47" t="s">
         <v>39</v>
       </c>
@@ -2888,7 +2932,7 @@
       <c r="B35" s="29"/>
       <c r="C35" s="29"/>
       <c r="D35" s="29"/>
-      <c r="E35" s="84"/>
+      <c r="E35" s="75"/>
       <c r="F35" s="47" t="s">
         <v>40</v>
       </c>
@@ -2923,7 +2967,7 @@
       <c r="B36" s="29"/>
       <c r="C36" s="29"/>
       <c r="D36" s="29"/>
-      <c r="E36" s="84"/>
+      <c r="E36" s="75"/>
       <c r="F36" s="47" t="s">
         <v>41</v>
       </c>
@@ -2958,7 +3002,7 @@
       <c r="B37" s="29"/>
       <c r="C37" s="29"/>
       <c r="D37" s="29"/>
-      <c r="E37" s="84"/>
+      <c r="E37" s="75"/>
       <c r="F37" s="47" t="s">
         <v>42</v>
       </c>
@@ -2993,7 +3037,7 @@
       <c r="B38" s="29"/>
       <c r="C38" s="29"/>
       <c r="D38" s="29"/>
-      <c r="E38" s="84"/>
+      <c r="E38" s="75"/>
       <c r="F38" s="47" t="s">
         <v>43</v>
       </c>
@@ -3028,7 +3072,7 @@
       <c r="B39" s="29"/>
       <c r="C39" s="29"/>
       <c r="D39" s="29"/>
-      <c r="E39" s="84"/>
+      <c r="E39" s="75"/>
       <c r="F39" s="47" t="s">
         <v>44</v>
       </c>
@@ -3063,7 +3107,7 @@
       <c r="B40" s="29"/>
       <c r="C40" s="29"/>
       <c r="D40" s="29"/>
-      <c r="E40" s="84"/>
+      <c r="E40" s="75"/>
       <c r="F40" s="47" t="s">
         <v>45</v>
       </c>
@@ -3098,7 +3142,7 @@
       <c r="B41" s="29"/>
       <c r="C41" s="29"/>
       <c r="D41" s="29"/>
-      <c r="E41" s="85"/>
+      <c r="E41" s="76"/>
       <c r="F41" s="48" t="s">
         <v>46</v>
       </c>
@@ -3108,7 +3152,7 @@
       </c>
       <c r="I41" s="13"/>
       <c r="J41" s="24"/>
-      <c r="K41" s="98"/>
+      <c r="K41" s="71"/>
       <c r="L41" s="33"/>
       <c r="M41" s="34"/>
       <c r="N41" s="10"/>
@@ -3133,15 +3177,17 @@
       <c r="B42" s="29"/>
       <c r="C42" s="29"/>
       <c r="D42" s="29"/>
-      <c r="E42" s="86" t="s">
+      <c r="E42" s="77" t="s">
         <v>71</v>
       </c>
       <c r="F42" s="49" t="s">
         <v>47</v>
       </c>
-      <c r="G42" s="20"/>
+      <c r="G42" s="99" t="s">
+        <v>76</v>
+      </c>
       <c r="H42" s="55">
-        <v>44728</v>
+        <v>44725</v>
       </c>
       <c r="I42" s="19"/>
       <c r="J42" s="22"/>
@@ -3170,13 +3216,15 @@
       <c r="B43" s="29"/>
       <c r="C43" s="29"/>
       <c r="D43" s="29"/>
-      <c r="E43" s="87"/>
+      <c r="E43" s="78"/>
       <c r="F43" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="G43" s="14"/>
+      <c r="G43" s="20" t="s">
+        <v>75</v>
+      </c>
       <c r="H43" s="56">
-        <v>44728</v>
+        <v>44725</v>
       </c>
       <c r="I43" s="12"/>
       <c r="J43" s="23"/>
@@ -3205,13 +3253,15 @@
       <c r="B44" s="29"/>
       <c r="C44" s="29"/>
       <c r="D44" s="29"/>
-      <c r="E44" s="87"/>
+      <c r="E44" s="78"/>
       <c r="F44" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="G44" s="14"/>
+      <c r="G44" s="20" t="s">
+        <v>75</v>
+      </c>
       <c r="H44" s="55">
-        <v>44728</v>
+        <v>44725</v>
       </c>
       <c r="I44" s="12"/>
       <c r="J44" s="23"/>
@@ -3240,13 +3290,15 @@
       <c r="B45" s="29"/>
       <c r="C45" s="29"/>
       <c r="D45" s="29"/>
-      <c r="E45" s="87"/>
+      <c r="E45" s="78"/>
       <c r="F45" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="G45" s="14"/>
+      <c r="G45" s="14" t="s">
+        <v>77</v>
+      </c>
       <c r="H45" s="56">
-        <v>44728</v>
+        <v>44725</v>
       </c>
       <c r="I45" s="12"/>
       <c r="J45" s="23"/>
@@ -3275,13 +3327,15 @@
       <c r="B46" s="29"/>
       <c r="C46" s="29"/>
       <c r="D46" s="29"/>
-      <c r="E46" s="87"/>
+      <c r="E46" s="78"/>
       <c r="F46" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="G46" s="14"/>
+      <c r="G46" s="14" t="s">
+        <v>77</v>
+      </c>
       <c r="H46" s="55">
-        <v>44728</v>
+        <v>44725</v>
       </c>
       <c r="I46" s="12"/>
       <c r="J46" s="23"/>
@@ -3310,13 +3364,15 @@
       <c r="B47" s="29"/>
       <c r="C47" s="29"/>
       <c r="D47" s="29"/>
-      <c r="E47" s="87"/>
+      <c r="E47" s="78"/>
       <c r="F47" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="G47" s="14"/>
+      <c r="G47" s="14" t="s">
+        <v>76</v>
+      </c>
       <c r="H47" s="56">
-        <v>44728</v>
+        <v>44725</v>
       </c>
       <c r="I47" s="12"/>
       <c r="J47" s="23"/>
@@ -3345,13 +3401,15 @@
       <c r="B48" s="29"/>
       <c r="C48" s="29"/>
       <c r="D48" s="29"/>
-      <c r="E48" s="87"/>
+      <c r="E48" s="78"/>
       <c r="F48" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="G48" s="14"/>
+      <c r="G48" s="14" t="s">
+        <v>76</v>
+      </c>
       <c r="H48" s="55">
-        <v>44728</v>
+        <v>44725</v>
       </c>
       <c r="I48" s="12"/>
       <c r="J48" s="23"/>
@@ -3380,13 +3438,15 @@
       <c r="B49" s="29"/>
       <c r="C49" s="29"/>
       <c r="D49" s="29"/>
-      <c r="E49" s="87"/>
+      <c r="E49" s="78"/>
       <c r="F49" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="G49" s="14"/>
+      <c r="G49" s="14" t="s">
+        <v>76</v>
+      </c>
       <c r="H49" s="56">
-        <v>44728</v>
+        <v>44725</v>
       </c>
       <c r="I49" s="12"/>
       <c r="J49" s="23"/>
@@ -3415,13 +3475,15 @@
       <c r="B50" s="29"/>
       <c r="C50" s="29"/>
       <c r="D50" s="29"/>
-      <c r="E50" s="87"/>
+      <c r="E50" s="78"/>
       <c r="F50" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="G50" s="21"/>
+      <c r="G50" s="14" t="s">
+        <v>77</v>
+      </c>
       <c r="H50" s="55">
-        <v>44728</v>
+        <v>44725</v>
       </c>
       <c r="I50" s="16"/>
       <c r="J50" s="35"/>
@@ -3450,13 +3512,15 @@
       <c r="B51" s="29"/>
       <c r="C51" s="29"/>
       <c r="D51" s="29"/>
-      <c r="E51" s="87"/>
+      <c r="E51" s="78"/>
       <c r="F51" s="50" t="s">
         <v>56</v>
       </c>
-      <c r="G51" s="14"/>
+      <c r="G51" s="20" t="s">
+        <v>75</v>
+      </c>
       <c r="H51" s="56">
-        <v>44728</v>
+        <v>44725</v>
       </c>
       <c r="I51" s="12"/>
       <c r="J51" s="23"/>
@@ -3485,17 +3549,19 @@
       <c r="B52" s="29"/>
       <c r="C52" s="29"/>
       <c r="D52" s="29"/>
-      <c r="E52" s="88"/>
+      <c r="E52" s="79"/>
       <c r="F52" s="51" t="s">
         <v>57</v>
       </c>
-      <c r="G52" s="15"/>
+      <c r="G52" s="13" t="s">
+        <v>75</v>
+      </c>
       <c r="H52" s="59">
-        <v>44728</v>
+        <v>44725</v>
       </c>
       <c r="I52" s="13"/>
       <c r="J52" s="24"/>
-      <c r="K52" s="98"/>
+      <c r="K52" s="71"/>
       <c r="L52" s="33"/>
       <c r="M52" s="34"/>
       <c r="N52" s="10"/>
@@ -3520,7 +3586,7 @@
       <c r="B53" s="29"/>
       <c r="C53" s="29"/>
       <c r="D53" s="29"/>
-      <c r="E53" s="89" t="s">
+      <c r="E53" s="80" t="s">
         <v>72</v>
       </c>
       <c r="F53" s="52" t="s">
@@ -3557,7 +3623,7 @@
       <c r="B54" s="29"/>
       <c r="C54" s="29"/>
       <c r="D54" s="29"/>
-      <c r="E54" s="90"/>
+      <c r="E54" s="81"/>
       <c r="F54" s="53" t="s">
         <v>59</v>
       </c>
@@ -3592,7 +3658,7 @@
       <c r="B55" s="29"/>
       <c r="C55" s="29"/>
       <c r="D55" s="29"/>
-      <c r="E55" s="90"/>
+      <c r="E55" s="81"/>
       <c r="F55" s="53" t="s">
         <v>60</v>
       </c>
@@ -3627,7 +3693,7 @@
       <c r="B56" s="29"/>
       <c r="C56" s="29"/>
       <c r="D56" s="29"/>
-      <c r="E56" s="90"/>
+      <c r="E56" s="81"/>
       <c r="F56" s="53" t="s">
         <v>61</v>
       </c>
@@ -3662,7 +3728,7 @@
       <c r="B57" s="29"/>
       <c r="C57" s="29"/>
       <c r="D57" s="29"/>
-      <c r="E57" s="90"/>
+      <c r="E57" s="81"/>
       <c r="F57" s="53" t="s">
         <v>62</v>
       </c>
@@ -3697,7 +3763,7 @@
       <c r="B58" s="29"/>
       <c r="C58" s="29"/>
       <c r="D58" s="29"/>
-      <c r="E58" s="90"/>
+      <c r="E58" s="81"/>
       <c r="F58" s="53" t="s">
         <v>63</v>
       </c>
@@ -3732,7 +3798,7 @@
       <c r="B59" s="29"/>
       <c r="C59" s="29"/>
       <c r="D59" s="29"/>
-      <c r="E59" s="90"/>
+      <c r="E59" s="81"/>
       <c r="F59" s="53" t="s">
         <v>64</v>
       </c>
@@ -3767,7 +3833,7 @@
       <c r="B60" s="29"/>
       <c r="C60" s="29"/>
       <c r="D60" s="29"/>
-      <c r="E60" s="90"/>
+      <c r="E60" s="81"/>
       <c r="F60" s="53" t="s">
         <v>65</v>
       </c>
@@ -3802,7 +3868,7 @@
       <c r="B61" s="29"/>
       <c r="C61" s="29"/>
       <c r="D61" s="29"/>
-      <c r="E61" s="90"/>
+      <c r="E61" s="81"/>
       <c r="F61" s="53" t="s">
         <v>66</v>
       </c>
@@ -3837,7 +3903,7 @@
       <c r="B62" s="29"/>
       <c r="C62" s="29"/>
       <c r="D62" s="29"/>
-      <c r="E62" s="90"/>
+      <c r="E62" s="81"/>
       <c r="F62" s="53" t="s">
         <v>67</v>
       </c>
@@ -3872,7 +3938,7 @@
       <c r="B63" s="30"/>
       <c r="C63" s="30"/>
       <c r="D63" s="30"/>
-      <c r="E63" s="91"/>
+      <c r="E63" s="82"/>
       <c r="F63" s="54" t="s">
         <v>68</v>
       </c>
@@ -3905,13 +3971,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="E21:E29"/>
-    <mergeCell ref="E30:E41"/>
-    <mergeCell ref="E42:E52"/>
-    <mergeCell ref="E53:E63"/>
-    <mergeCell ref="H5:H7"/>
-    <mergeCell ref="E8:E17"/>
-    <mergeCell ref="E18:E20"/>
     <mergeCell ref="I5:I7"/>
     <mergeCell ref="J5:J7"/>
     <mergeCell ref="B5:B7"/>
@@ -3920,6 +3979,13 @@
     <mergeCell ref="E5:E7"/>
     <mergeCell ref="F5:F7"/>
     <mergeCell ref="G5:G7"/>
+    <mergeCell ref="E21:E29"/>
+    <mergeCell ref="E30:E41"/>
+    <mergeCell ref="E42:E52"/>
+    <mergeCell ref="E53:E63"/>
+    <mergeCell ref="H5:H7"/>
+    <mergeCell ref="E8:E17"/>
+    <mergeCell ref="E18:E20"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
